--- a/scaling-plots/excel-processed/split_merge_local.xlsx
+++ b/scaling-plots/excel-processed/split_merge_local.xlsx
@@ -130,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -217,15 +217,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,11 +248,11 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI17" activeCellId="0" sqref="AI17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N39" activeCellId="0" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -277,7 +277,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH3" s="0" t="s">
+      <c r="AH3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -337,7 +337,7 @@
       <c r="T4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V4" s="2" t="s">
@@ -368,13 +368,13 @@
         <v>32</v>
       </c>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="0" t="s">
+      <c r="AH4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="0" t="s">
+      <c r="AI4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="0" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -392,34 +392,34 @@
         <v>30000000</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>77.001852</v>
+        <v>78.861975</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.443553</v>
+        <v>0.475966</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>7.187883</v>
+        <v>7.766312</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>35.370638</v>
+        <v>34.055103</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>7.195922</v>
+        <v>7.545716</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>20.54658</v>
+        <v>22.08674</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>3.186483</v>
+        <v>3.802897</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>2.708628</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0.000356</v>
+        <v>2.781339</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>8.8E-005</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.097582</v>
+        <v>0.088581</v>
       </c>
       <c r="P5" s="1" t="n">
         <f aca="false">A5 * B5 * C5</f>
@@ -427,51 +427,51 @@
       </c>
       <c r="R5" s="1" t="n">
         <f aca="false">F5 / $E5</f>
-        <v>0.00576029002523212</v>
+        <v>0.00603543089048936</v>
       </c>
       <c r="S5" s="1" t="n">
         <f aca="false">G5 / $E5</f>
-        <v>0.0933468846957084</v>
+        <v>0.09847980601551</v>
       </c>
       <c r="T5" s="2" t="n">
         <f aca="false">H5 / $E5</f>
-        <v>0.459347886853423</v>
-      </c>
-      <c r="U5" s="3" t="n">
+        <v>0.431831728789445</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <f aca="false">I5 / $E5</f>
-        <v>0.0934512847820855</v>
+        <v>0.095682564379094</v>
       </c>
       <c r="V5" s="4" t="n">
         <f aca="false">J5 / $E5</f>
-        <v>0.266832283462481</v>
+        <v>0.280068309220001</v>
       </c>
       <c r="W5" s="1" t="n">
         <f aca="false">K5 / $E5</f>
-        <v>0.041381900788568</v>
+        <v>0.0482221881965294</v>
       </c>
       <c r="X5" s="1" t="n">
         <f aca="false">L5 / $E5</f>
-        <v>0.035176140958272</v>
+        <v>0.0352684421104087</v>
       </c>
       <c r="Y5" s="1" t="n">
         <f aca="false">M5 / $E5</f>
-        <v>4.62326542483679E-006</v>
+        <v>1.11587365140171E-006</v>
       </c>
       <c r="Z5" s="1" t="n">
         <f aca="false">N5 / $E5</f>
-        <v>0.00126726822102928</v>
+        <v>0.00112324095357744</v>
       </c>
       <c r="AB5" s="1" t="n">
         <f aca="false">E$32 / E5</f>
-        <v>36.7742240797014</v>
+        <v>36.1291455736431</v>
       </c>
       <c r="AC5" s="1" t="n">
         <f aca="false">H$32/H5</f>
-        <v>56.8772689935647</v>
+        <v>59.5350332958911</v>
       </c>
       <c r="AD5" s="1" t="n">
         <f aca="false">J$32/J5</f>
-        <v>30.5760139643678</v>
+        <v>28.3973508992273</v>
       </c>
       <c r="AF5" s="1" t="n">
         <f aca="false">D5 / P5</f>
@@ -492,34 +492,34 @@
         <v>30000000</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>64.862614</v>
+        <v>63.02707</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.392189</v>
+        <v>0.356824</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1.14298</v>
+        <v>0.855484</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>33.88655</v>
+        <v>33.857109</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>7.952897</v>
+        <v>7.02233</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>17.747644</v>
+        <v>17.325897</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.474837</v>
+        <v>1.376434</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>1.757769</v>
+        <v>1.718948</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.180033</v>
+        <v>0.227756</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0.056038</v>
+        <v>0.027129</v>
       </c>
       <c r="P6" s="1" t="n">
         <f aca="false">A6 * B6 * C6</f>
@@ -527,67 +527,67 @@
       </c>
       <c r="R6" s="1" t="n">
         <f aca="false">F6 / $E6</f>
-        <v>0.00604645690042649</v>
+        <v>0.00566144039378635</v>
       </c>
       <c r="S6" s="1" t="n">
         <f aca="false">G6 / $E6</f>
-        <v>0.0176215531492456</v>
+        <v>0.0135732789101572</v>
       </c>
       <c r="T6" s="2" t="n">
         <f aca="false">H6 / $E6</f>
-        <v>0.522435774790082</v>
-      </c>
-      <c r="U6" s="3" t="n">
+        <v>0.537183610153542</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <f aca="false">I6 / $E6</f>
-        <v>0.122611416801673</v>
+        <v>0.111417681323279</v>
       </c>
       <c r="V6" s="4" t="n">
         <f aca="false">J6 / $E6</f>
-        <v>0.273619006474207</v>
+        <v>0.274896120032234</v>
       </c>
       <c r="W6" s="1" t="n">
         <f aca="false">K6 / $E6</f>
-        <v>0.0227378594393374</v>
+        <v>0.0218387749898575</v>
       </c>
       <c r="X6" s="1" t="n">
         <f aca="false">L6 / $E6</f>
-        <v>0.0270998791383893</v>
+        <v>0.027273170083902</v>
       </c>
       <c r="Y6" s="1" t="n">
         <f aca="false">M6 / $E6</f>
-        <v>0.00277560506580879</v>
+        <v>0.00361362189294219</v>
       </c>
       <c r="Z6" s="1" t="n">
         <f aca="false">N6 / $E6</f>
-        <v>0.000863949146422005</v>
+        <v>0.000430434097602824</v>
       </c>
       <c r="AB6" s="1" t="n">
         <f aca="false">E$32 / E6</f>
-        <v>43.6566333882258</v>
+        <v>45.2062228975581</v>
       </c>
       <c r="AC6" s="1" t="n">
         <f aca="false">H$32/H6</f>
-        <v>59.3682535401214</v>
+        <v>59.8831899971141</v>
       </c>
       <c r="AD6" s="1" t="n">
         <f aca="false">J$32/J6</f>
-        <v>35.3980797113127</v>
+        <v>36.2004291033243</v>
       </c>
       <c r="AF6" s="1" t="n">
         <f aca="false">D6 / P6</f>
         <v>468750</v>
       </c>
-      <c r="AH6" s="0" t="n">
-        <f aca="false"> E$31 / E6</f>
-        <v>23.6337023975013</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <f aca="false"> H$31 / H6</f>
-        <v>31.1961805790203</v>
-      </c>
-      <c r="AJ6" s="0" t="n">
-        <f aca="false"> J$31 / J6</f>
-        <v>18.5701539314176</v>
+      <c r="AH6" s="1" t="n">
+        <f aca="false">E$31 / E6</f>
+        <v>24.436089413644</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <f aca="false">H$31 / H6</f>
+        <v>31.3800274855127</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <f aca="false">J$31 / J6</f>
+        <v>18.9675608714516</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,34 +604,34 @@
         <v>30000000</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>62.247278</v>
+        <v>61.523985</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.389196</v>
+        <v>0.362109</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.986128</v>
+        <v>0.757584</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>33.575606</v>
+        <v>33.579399</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>6.583196</v>
+        <v>6.326648</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>16.569634</v>
+        <v>16.631187</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.96028</v>
+        <v>0.897866</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.439286</v>
+        <v>1.412511</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>1.463129</v>
+        <v>1.284071</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.052453</v>
+        <v>0.042806</v>
       </c>
       <c r="P7" s="1" t="n">
         <f aca="false">A7 * B7 * C7</f>
@@ -639,67 +639,67 @@
       </c>
       <c r="R7" s="1" t="n">
         <f aca="false">F7 / $E7</f>
-        <v>0.00625241797721661</v>
+        <v>0.00588565581374483</v>
       </c>
       <c r="S7" s="1" t="n">
         <f aca="false">G7 / $E7</f>
-        <v>0.0158421063809409</v>
+        <v>0.0123136367060749</v>
       </c>
       <c r="T7" s="2" t="n">
         <f aca="false">H7 / $E7</f>
-        <v>0.539390750548161</v>
-      </c>
-      <c r="U7" s="3" t="n">
+        <v>0.545793628289845</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <f aca="false">I7 / $E7</f>
-        <v>0.10575877711472</v>
+        <v>0.102832220637204</v>
       </c>
       <c r="V7" s="4" t="n">
         <f aca="false">J7 / $E7</f>
-        <v>0.266190499125118</v>
+        <v>0.270320379929876</v>
       </c>
       <c r="W7" s="1" t="n">
         <f aca="false">K7 / $E7</f>
-        <v>0.0154268593078078</v>
+        <v>0.0145937555897915</v>
       </c>
       <c r="X7" s="1" t="n">
         <f aca="false">L7 / $E7</f>
-        <v>0.0231220712976397</v>
+        <v>0.0229587046417751</v>
       </c>
       <c r="Y7" s="1" t="n">
         <f aca="false">M7 / $E7</f>
-        <v>0.023505108126977</v>
+        <v>0.020871063537253</v>
       </c>
       <c r="Z7" s="1" t="n">
         <f aca="false">N7 / $E7</f>
-        <v>0.000842655320606951</v>
+        <v>0.000695761173467551</v>
       </c>
       <c r="AB7" s="1" t="n">
         <f aca="false">E$32 / E7</f>
-        <v>45.490878492711</v>
+        <v>46.3106506348703</v>
       </c>
       <c r="AC7" s="1" t="n">
         <f aca="false">H$32/H7</f>
-        <v>59.9180634893083</v>
+        <v>60.3784389053538</v>
       </c>
       <c r="AD7" s="1" t="n">
         <f aca="false">J$32/J7</f>
-        <v>37.9146888217326</v>
+        <v>37.7125761378307</v>
       </c>
       <c r="AF7" s="1" t="n">
         <f aca="false">D7 / P7</f>
         <v>468750</v>
       </c>
-      <c r="AH7" s="0" t="n">
-        <f aca="false"> E$31 / E7</f>
-        <v>24.6266787119591</v>
-      </c>
-      <c r="AI7" s="0" t="n">
-        <f aca="false"> H$31 / H7</f>
-        <v>31.4850886980268</v>
-      </c>
-      <c r="AJ7" s="0" t="n">
-        <f aca="false"> J$31 / J7</f>
-        <v>19.8903899144664</v>
+      <c r="AH7" s="1" t="n">
+        <f aca="false">E$31 / E7</f>
+        <v>25.0330845441822</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <f aca="false">H$31 / H7</f>
+        <v>31.6395481348549</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <f aca="false">J$31 / J7</f>
+        <v>19.7598647649143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,34 +716,34 @@
         <v>30000000</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>62.761328</v>
+        <v>62.566016</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.351492</v>
+        <v>0.36861</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.765008</v>
+        <v>0.759301</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>32.76554</v>
+        <v>32.78746</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>9.430322</v>
+        <v>8.493692</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>15.18451</v>
+        <v>15.124774</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.611463</v>
+        <v>0.585508</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.519188</v>
+        <v>1.4369</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>1.854439</v>
+        <v>2.763479</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.037388</v>
+        <v>0.02522</v>
       </c>
       <c r="P8" s="1" t="n">
         <f aca="false">A8 * B8 * C8</f>
@@ -751,67 +751,67 @@
       </c>
       <c r="R8" s="1" t="n">
         <f aca="false">F8 / $E8</f>
-        <v>0.00560045510827942</v>
+        <v>0.00589153702866425</v>
       </c>
       <c r="S8" s="1" t="n">
         <f aca="false">G8 / $E8</f>
-        <v>0.0121891620903879</v>
+        <v>0.012135997280057</v>
       </c>
       <c r="T8" s="2" t="n">
         <f aca="false">H8 / $E8</f>
-        <v>0.522065753611842</v>
-      </c>
-      <c r="U8" s="3" t="n">
+        <v>0.52404583344415</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <f aca="false">I8 / $E8</f>
-        <v>0.150256890676373</v>
+        <v>0.135755679249259</v>
       </c>
       <c r="V8" s="4" t="n">
         <f aca="false">J8 / $E8</f>
-        <v>0.241940546573521</v>
+        <v>0.241741043572281</v>
       </c>
       <c r="W8" s="1" t="n">
         <f aca="false">K8 / $E8</f>
-        <v>0.00974267147438308</v>
+        <v>0.00935824329936559</v>
       </c>
       <c r="X8" s="1" t="n">
         <f aca="false">L8 / $E8</f>
-        <v>0.0242057975573748</v>
+        <v>0.0229661418748478</v>
       </c>
       <c r="Y8" s="1" t="n">
         <f aca="false">M8 / $E8</f>
-        <v>0.0295474786639314</v>
+        <v>0.0441690102179432</v>
       </c>
       <c r="Z8" s="1" t="n">
         <f aca="false">N8 / $E8</f>
-        <v>0.000595717158821114</v>
+        <v>0.000403094229301735</v>
       </c>
       <c r="AB8" s="1" t="n">
         <f aca="false">E$32 / E8</f>
-        <v>45.1182830293202</v>
+        <v>45.5393511870726</v>
       </c>
       <c r="AC8" s="1" t="n">
         <f aca="false">H$32/H8</f>
-        <v>61.3994242731846</v>
+        <v>61.8368025763508</v>
       </c>
       <c r="AD8" s="1" t="n">
         <f aca="false">J$32/J8</f>
-        <v>41.3732492520338</v>
+        <v>41.4687125903501</v>
       </c>
       <c r="AF8" s="1" t="n">
         <f aca="false">D8 / P8</f>
         <v>468750</v>
       </c>
-      <c r="AH8" s="0" t="n">
-        <f aca="false"> E$31 / E8</f>
-        <v>24.4249725882155</v>
-      </c>
-      <c r="AI8" s="0" t="n">
-        <f aca="false"> H$31 / H8</f>
-        <v>32.2634979615779</v>
-      </c>
-      <c r="AJ8" s="0" t="n">
-        <f aca="false"> J$31 / J8</f>
-        <v>21.7047821101899</v>
+      <c r="AH8" s="1" t="n">
+        <f aca="false">E$31 / E8</f>
+        <v>24.6161609203309</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <f aca="false">H$31 / H8</f>
+        <v>32.4037607975732</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <f aca="false">J$31 / J8</f>
+        <v>21.7279283644172</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,34 +828,34 @@
         <v>30000000</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>57.310172</v>
+        <v>57.262851</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.36231</v>
+        <v>0.345477</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.720157</v>
+        <v>0.628229</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>32.356358</v>
+        <v>32.397943</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>7.639151</v>
+        <v>7.501985</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>12.453799</v>
+        <v>12.496708</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.425609</v>
+        <v>0.405937</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>1.286068</v>
+        <v>1.263019</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>1.840989</v>
+        <v>2.003807</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.02601</v>
+        <v>0.024925</v>
       </c>
       <c r="P9" s="1" t="n">
         <f aca="false">A9 * B9 * C9</f>
@@ -863,67 +863,67 @@
       </c>
       <c r="R9" s="1" t="n">
         <f aca="false">F9 / $E9</f>
-        <v>0.0063219143715011</v>
+        <v>0.00603317847377177</v>
       </c>
       <c r="S9" s="1" t="n">
         <f aca="false">G9 / $E9</f>
-        <v>0.0125659542602664</v>
+        <v>0.0109709696431287</v>
       </c>
       <c r="T9" s="2" t="n">
         <f aca="false">H9 / $E9</f>
-        <v>0.564583159862092</v>
-      </c>
-      <c r="U9" s="3" t="n">
+        <v>0.565775933859807</v>
+      </c>
+      <c r="U9" s="1" t="n">
         <f aca="false">I9 / $E9</f>
-        <v>0.133294853835023</v>
+        <v>0.131009631357684</v>
       </c>
       <c r="V9" s="4" t="n">
         <f aca="false">J9 / $E9</f>
-        <v>0.217305210670106</v>
+        <v>0.218234121804379</v>
       </c>
       <c r="W9" s="1" t="n">
         <f aca="false">K9 / $E9</f>
-        <v>0.00742641288879747</v>
+        <v>0.00708901133825838</v>
       </c>
       <c r="X9" s="1" t="n">
         <f aca="false">L9 / $E9</f>
-        <v>0.0224404840383309</v>
+        <v>0.0220565161870826</v>
       </c>
       <c r="Y9" s="1" t="n">
         <f aca="false">M9 / $E9</f>
-        <v>0.0321232503018836</v>
+        <v>0.0349931406663633</v>
       </c>
       <c r="Z9" s="1" t="n">
         <f aca="false">N9 / $E9</f>
-        <v>0.000453846133981242</v>
+        <v>0.000435273472499649</v>
       </c>
       <c r="AB9" s="1" t="n">
         <f aca="false">E$32 / E9</f>
-        <v>49.4097864511731</v>
+        <v>49.7567921478447</v>
       </c>
       <c r="AC9" s="1" t="n">
         <f aca="false">H$32/H9</f>
-        <v>62.1758880279418</v>
+        <v>62.5802598331629</v>
       </c>
       <c r="AD9" s="1" t="n">
         <f aca="false">J$32/J9</f>
-        <v>50.4450503015184</v>
+        <v>50.1896104157991</v>
       </c>
       <c r="AF9" s="1" t="n">
         <f aca="false">D9 / P9</f>
         <v>468750</v>
       </c>
-      <c r="AH9" s="0" t="n">
-        <f aca="false"> E$31 / E9</f>
-        <v>26.7481960444997</v>
-      </c>
-      <c r="AI9" s="0" t="n">
-        <f aca="false"> H$31 / H9</f>
-        <v>32.6715056434967</v>
-      </c>
-      <c r="AJ9" s="0" t="n">
-        <f aca="false"> J$31 / J9</f>
-        <v>26.4639312871518</v>
+      <c r="AH9" s="1" t="n">
+        <f aca="false">E$31 / E9</f>
+        <v>26.8958860955072</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <f aca="false">H$31 / H9</f>
+        <v>32.7933477443306</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <f aca="false">J$31 / J9</f>
+        <v>26.2973261438132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,34 +940,34 @@
         <v>30000000</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>58.218185</v>
+        <v>57.698338</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.371845</v>
+        <v>0.342574</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.732157</v>
+        <v>0.646755</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>32.759181</v>
+        <v>32.742301</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>8.785601</v>
+        <v>8.364838</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>11.199293</v>
+        <v>11.455033</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.299376</v>
+        <v>0.344143</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>1.267395</v>
+        <v>1.165992</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>2.574649</v>
+        <v>2.415673</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.026693</v>
+        <v>0.025742</v>
       </c>
       <c r="P10" s="1" t="n">
         <f aca="false">A10 * B10 * C10</f>
@@ -975,67 +975,67 @@
       </c>
       <c r="R10" s="1" t="n">
         <f aca="false">F10 / $E10</f>
-        <v>0.00638709365467165</v>
+        <v>0.0059373287320685</v>
       </c>
       <c r="S10" s="1" t="n">
         <f aca="false">G10 / $E10</f>
-        <v>0.0125760876949359</v>
+        <v>0.0112092483495798</v>
       </c>
       <c r="T10" s="2" t="n">
         <f aca="false">H10 / $E10</f>
-        <v>0.562696707223009</v>
-      </c>
-      <c r="U10" s="3" t="n">
+        <v>0.567473901934576</v>
+      </c>
+      <c r="U10" s="1" t="n">
         <f aca="false">I10 / $E10</f>
-        <v>0.150908191315136</v>
+        <v>0.144975371734278</v>
       </c>
       <c r="V10" s="4" t="n">
         <f aca="false">J10 / $E10</f>
-        <v>0.192367608162295</v>
+        <v>0.198533153589277</v>
       </c>
       <c r="W10" s="1" t="n">
         <f aca="false">K10 / $E10</f>
-        <v>0.00514231077454579</v>
+        <v>0.00596452188969464</v>
       </c>
       <c r="X10" s="1" t="n">
         <f aca="false">L10 / $E10</f>
-        <v>0.021769744281791</v>
+        <v>0.0202084157086119</v>
       </c>
       <c r="Y10" s="1" t="n">
         <f aca="false">M10 / $E10</f>
-        <v>0.044224137183253</v>
+        <v>0.0418672891409801</v>
       </c>
       <c r="Z10" s="1" t="n">
         <f aca="false">N10 / $E10</f>
-        <v>0.000458499350331859</v>
+        <v>0.000446148032894812</v>
       </c>
       <c r="AB10" s="1" t="n">
         <f aca="false">E$32 / E10</f>
-        <v>48.6391556177851</v>
+        <v>49.3812451755543</v>
       </c>
       <c r="AC10" s="1" t="n">
         <f aca="false">H$32/H10</f>
-        <v>61.4113427316758</v>
+        <v>61.9220894402015</v>
       </c>
       <c r="AD10" s="1" t="n">
         <f aca="false">J$32/J10</f>
-        <v>56.0957300608172</v>
+        <v>54.753653350453</v>
       </c>
       <c r="AF10" s="1" t="n">
         <f aca="false">D10 / P10</f>
         <v>468750</v>
       </c>
-      <c r="AH10" s="0" t="n">
-        <f aca="false"> E$31 / E10</f>
-        <v>26.3310117964</v>
-      </c>
-      <c r="AI10" s="0" t="n">
-        <f aca="false"> H$31 / H10</f>
-        <v>32.2697607427976</v>
-      </c>
-      <c r="AJ10" s="0" t="n">
-        <f aca="false"> J$31 / J10</f>
-        <v>29.4283291811367</v>
+      <c r="AH10" s="1" t="n">
+        <f aca="false">E$31 / E10</f>
+        <v>26.6928852959335</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <f aca="false">H$31 / H10</f>
+        <v>32.4484528744635</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <f aca="false">J$31 / J10</f>
+        <v>28.6887000674725</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,34 +1052,34 @@
         <v>30000000</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>60.23557</v>
+        <v>59.882493</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.346317</v>
+        <v>0.342447</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.708715</v>
+        <v>0.650855</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>32.863896</v>
+        <v>32.870534</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>10.929724</v>
+        <v>10.771029</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>10.933187</v>
+        <v>10.898116</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.288401</v>
+        <v>0.271919</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.176381</v>
+        <v>1.146382</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>2.756685</v>
+        <v>2.7019</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>0.027191</v>
+        <v>0.025122</v>
       </c>
       <c r="P11" s="1" t="n">
         <f aca="false">A11 * B11 * C11</f>
@@ -1087,67 +1087,67 @@
       </c>
       <c r="R11" s="1" t="n">
         <f aca="false">F11 / $E11</f>
-        <v>0.00574937698771673</v>
+        <v>0.00571864968948437</v>
       </c>
       <c r="S11" s="1" t="n">
         <f aca="false">G11 / $E11</f>
-        <v>0.0117657224792593</v>
+        <v>0.0108688694707483</v>
       </c>
       <c r="T11" s="2" t="n">
         <f aca="false">H11 / $E11</f>
-        <v>0.545589524594853</v>
-      </c>
-      <c r="U11" s="3" t="n">
+        <v>0.54891726034185</v>
+      </c>
+      <c r="U11" s="1" t="n">
         <f aca="false">I11 / $E11</f>
-        <v>0.181449665040108</v>
+        <v>0.179869415256309</v>
       </c>
       <c r="V11" s="4" t="n">
         <f aca="false">J11 / $E11</f>
-        <v>0.181507155987733</v>
+        <v>0.181991688288595</v>
       </c>
       <c r="W11" s="1" t="n">
         <f aca="false">K11 / $E11</f>
-        <v>0.00478788529767378</v>
+        <v>0.00454087641274387</v>
       </c>
       <c r="X11" s="1" t="n">
         <f aca="false">L11 / $E11</f>
-        <v>0.0195296732478833</v>
+        <v>0.0191438589572415</v>
       </c>
       <c r="Y11" s="1" t="n">
         <f aca="false">M11 / $E11</f>
-        <v>0.0457650687127224</v>
+        <v>0.045120031993324</v>
       </c>
       <c r="Z11" s="1" t="n">
         <f aca="false">N11 / $E11</f>
-        <v>0.000451411018439769</v>
+        <v>0.00041952161210122</v>
       </c>
       <c r="AB11" s="1" t="n">
         <f aca="false">E$32 / E11</f>
-        <v>47.0101529710767</v>
+        <v>47.5801128553549</v>
       </c>
       <c r="AC11" s="1" t="n">
         <f aca="false">H$32/H11</f>
-        <v>61.215666334874</v>
+        <v>61.6805218619205</v>
       </c>
       <c r="AD11" s="1" t="n">
         <f aca="false">J$32/J11</f>
-        <v>57.4610602562638</v>
+        <v>57.5516819604416</v>
       </c>
       <c r="AF11" s="1" t="n">
         <f aca="false">D11 / P11</f>
         <v>468750</v>
       </c>
-      <c r="AH11" s="0" t="n">
-        <f aca="false"> E$31 / E11</f>
-        <v>25.4491443510869</v>
-      </c>
-      <c r="AI11" s="0" t="n">
-        <f aca="false"> H$31 / H11</f>
-        <v>32.1669388498552</v>
-      </c>
-      <c r="AJ11" s="0" t="n">
-        <f aca="false"> J$31 / J11</f>
-        <v>30.1445937950206</v>
+      <c r="AH11" s="1" t="n">
+        <f aca="false">E$31 / E11</f>
+        <v>25.7192885740412</v>
+      </c>
+      <c r="AI11" s="1" t="n">
+        <f aca="false">H$31 / H11</f>
+        <v>32.3218664777396</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <f aca="false">J$31 / J11</f>
+        <v>30.1547539042528</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,34 +1164,34 @@
         <v>30000000</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>124.579566</v>
+        <v>120.255808</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.798055</v>
+        <v>0.783149</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>7.211348</v>
+        <v>6.743257</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>64.325068</v>
+        <v>64.442306</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>6.460298</v>
+        <v>6.385105</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>36.294159</v>
+        <v>32.788401</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>3.52803</v>
+        <v>3.446819</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>5.486857</v>
+        <v>5.209629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.2E-005</v>
+        <v>9.1E-005</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>0.075774</v>
+        <v>0.075211</v>
       </c>
       <c r="P12" s="1" t="n">
         <f aca="false">A12 * B12 * C12</f>
@@ -1199,51 +1199,51 @@
       </c>
       <c r="R12" s="1" t="n">
         <f aca="false">F12 / $E12</f>
-        <v>0.00640598635573991</v>
+        <v>0.00651235905379306</v>
       </c>
       <c r="S12" s="1" t="n">
         <f aca="false">G12 / $E12</f>
-        <v>0.0578854801918318</v>
+        <v>0.056074272936572</v>
       </c>
       <c r="T12" s="2" t="n">
         <f aca="false">H12 / $E12</f>
-        <v>0.51633722981504</v>
-      </c>
-      <c r="U12" s="3" t="n">
+        <v>0.535876870080154</v>
+      </c>
+      <c r="U12" s="1" t="n">
         <f aca="false">I12 / $E12</f>
-        <v>0.0518568029045791</v>
+        <v>0.0530960217738506</v>
       </c>
       <c r="V12" s="4" t="n">
         <f aca="false">J12 / $E12</f>
-        <v>0.291333162936207</v>
+        <v>0.272655446296615</v>
       </c>
       <c r="W12" s="1" t="n">
         <f aca="false">K12 / $E12</f>
-        <v>0.0283194918177833</v>
+        <v>0.0286623910921625</v>
       </c>
       <c r="X12" s="1" t="n">
         <f aca="false">L12 / $E12</f>
-        <v>0.044042993375013</v>
+        <v>0.0433212256991363</v>
       </c>
       <c r="Y12" s="1" t="n">
         <f aca="false">M12 / $E12</f>
-        <v>6.5821388396874E-007</v>
+        <v>7.56720207642695E-007</v>
       </c>
       <c r="Z12" s="1" t="n">
         <f aca="false">N12 / $E12</f>
-        <v>0.000608237790778626</v>
+        <v>0.000625425093813348</v>
       </c>
       <c r="AB12" s="1" t="n">
         <f aca="false">E$32 / E12</f>
-        <v>22.7299183238445</v>
+        <v>23.6929577239213</v>
       </c>
       <c r="AC12" s="1" t="n">
         <f aca="false">H$32/H12</f>
-        <v>31.275292114732</v>
+        <v>31.4618116086659</v>
       </c>
       <c r="AD12" s="1" t="n">
         <f aca="false">J$32/J12</f>
-        <v>17.3094661595548</v>
+        <v>19.1288652959929</v>
       </c>
       <c r="AF12" s="1" t="n">
         <f aca="false">D12 / P12</f>
@@ -1264,34 +1264,34 @@
         <v>30000000</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>124.406703</v>
+        <v>124.20371</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.845641</v>
+        <v>0.860529</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1.520703</v>
+        <v>1.455685</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>67.050546</v>
+        <v>66.929606</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>11.275716</v>
+        <v>11.245856</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>33.130894</v>
+        <v>33.370627</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1.393259</v>
+        <v>1.358156</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>7.042733</v>
+        <v>6.960299</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>1.663551</v>
+        <v>1.516747</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>0.052536</v>
+        <v>0.063557</v>
       </c>
       <c r="P13" s="1" t="n">
         <f aca="false">A13 * B13 * C13</f>
@@ -1299,67 +1299,67 @@
       </c>
       <c r="R13" s="1" t="n">
         <f aca="false">F13 / $E13</f>
-        <v>0.00679739097337866</v>
+        <v>0.0069283679207328</v>
       </c>
       <c r="S13" s="1" t="n">
         <f aca="false">G13 / $E13</f>
-        <v>0.0122236420010263</v>
+        <v>0.0117201410489268</v>
       </c>
       <c r="T13" s="2" t="n">
         <f aca="false">H13 / $E13</f>
-        <v>0.538962486611352</v>
-      </c>
-      <c r="U13" s="3" t="n">
+        <v>0.538869619917151</v>
+      </c>
+      <c r="U13" s="1" t="n">
         <f aca="false">I13 / $E13</f>
-        <v>0.0906359201561672</v>
+        <v>0.0905436399605133</v>
       </c>
       <c r="V13" s="4" t="n">
         <f aca="false">J13 / $E13</f>
-        <v>0.266311164921716</v>
+        <v>0.268676571738477</v>
       </c>
       <c r="W13" s="1" t="n">
         <f aca="false">K13 / $E13</f>
-        <v>0.0111992277457912</v>
+        <v>0.0109349068558419</v>
       </c>
       <c r="X13" s="1" t="n">
         <f aca="false">L13 / $E13</f>
-        <v>0.0566105589985774</v>
+        <v>0.0560393807882228</v>
       </c>
       <c r="Y13" s="1" t="n">
         <f aca="false">M13 / $E13</f>
-        <v>0.0133718759510892</v>
+        <v>0.012211768875503</v>
       </c>
       <c r="Z13" s="1" t="n">
         <f aca="false">N13 / $E13</f>
-        <v>0.000422292358314487</v>
+        <v>0.000511715793352711</v>
       </c>
       <c r="AB13" s="1" t="n">
         <f aca="false">E$32 / E13</f>
-        <v>22.7615015245601</v>
+        <v>22.9398604518335</v>
       </c>
       <c r="AC13" s="1" t="n">
         <f aca="false">H$32/H13</f>
-        <v>30.0040105862822</v>
+        <v>30.2925986296707</v>
       </c>
       <c r="AD13" s="1" t="n">
         <f aca="false">J$32/J13</f>
-        <v>18.9621359749604</v>
+        <v>18.7951190128972</v>
       </c>
       <c r="AF13" s="1" t="n">
         <f aca="false">D13 / P13</f>
         <v>937500</v>
       </c>
-      <c r="AH13" s="0" t="n">
-        <f aca="false"> E$31 / E13</f>
-        <v>12.3220347379514</v>
-      </c>
-      <c r="AI13" s="0" t="n">
-        <f aca="false"> H$31 / H13</f>
-        <v>15.7661793387932</v>
-      </c>
-      <c r="AJ13" s="0" t="n">
-        <f aca="false"> J$31 / J13</f>
-        <v>9.9477086552509</v>
+      <c r="AH13" s="1" t="n">
+        <f aca="false">E$31 / E13</f>
+        <v>12.4000733794506</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <f aca="false">H$31 / H13</f>
+        <v>15.8739468898114</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <f aca="false">J$31 / J13</f>
+        <v>9.84788227083657</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,34 +1376,34 @@
         <v>30000000</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>122.940158</v>
+        <v>120.473706</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.850787</v>
+        <v>0.869871</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1.491676</v>
+        <v>1.435986</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>66.891249</v>
+        <v>66.994501</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>13.289799</v>
+        <v>11.79347</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>31.397921</v>
+        <v>30.867003</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>1.455105</v>
+        <v>1.280776</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>5.582352</v>
+        <v>5.287394</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>1.519814</v>
+        <v>1.396384</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>0.055036</v>
+        <v>0.08636</v>
       </c>
       <c r="P14" s="1" t="n">
         <f aca="false">A14 * B14 * C14</f>
@@ -1411,67 +1411,67 @@
       </c>
       <c r="R14" s="1" t="n">
         <f aca="false">F14 / $E14</f>
-        <v>0.0069203343629996</v>
+        <v>0.00722042202304294</v>
       </c>
       <c r="S14" s="1" t="n">
         <f aca="false">G14 / $E14</f>
-        <v>0.0121333502759936</v>
+        <v>0.0119194971888721</v>
       </c>
       <c r="T14" s="2" t="n">
         <f aca="false">H14 / $E14</f>
-        <v>0.544096006448926</v>
-      </c>
-      <c r="U14" s="3" t="n">
+        <v>0.55609230615019</v>
+      </c>
+      <c r="U14" s="1" t="n">
         <f aca="false">I14 / $E14</f>
-        <v>0.108099739061666</v>
+        <v>0.0978924812024957</v>
       </c>
       <c r="V14" s="4" t="n">
         <f aca="false">J14 / $E14</f>
-        <v>0.255391903758575</v>
+        <v>0.256213608967919</v>
       </c>
       <c r="W14" s="1" t="n">
         <f aca="false">K14 / $E14</f>
-        <v>0.0118358803475753</v>
+        <v>0.0106311662729127</v>
       </c>
       <c r="X14" s="1" t="n">
         <f aca="false">L14 / $E14</f>
-        <v>0.0454070670707939</v>
+        <v>0.0438883651508156</v>
       </c>
       <c r="Y14" s="1" t="n">
         <f aca="false">M14 / $E14</f>
-        <v>0.0123622258562576</v>
+        <v>0.0115907781570196</v>
       </c>
       <c r="Z14" s="1" t="n">
         <f aca="false">N14 / $E14</f>
-        <v>0.000447664952569851</v>
+        <v>0.00071683691709459</v>
       </c>
       <c r="AB14" s="1" t="n">
         <f aca="false">E$32 / E14</f>
-        <v>23.0330219682978</v>
+        <v>23.650104820383</v>
       </c>
       <c r="AC14" s="1" t="n">
         <f aca="false">H$32/H14</f>
-        <v>30.0754631147641</v>
+        <v>30.2632553528535</v>
       </c>
       <c r="AD14" s="1" t="n">
         <f aca="false">J$32/J14</f>
-        <v>20.0087297818222</v>
+        <v>20.3195919603857</v>
       </c>
       <c r="AF14" s="1" t="n">
         <f aca="false">D14 / P14</f>
         <v>937500</v>
       </c>
-      <c r="AH14" s="0" t="n">
-        <f aca="false"> E$31 / E14</f>
-        <v>12.4690234740059</v>
-      </c>
-      <c r="AI14" s="0" t="n">
-        <f aca="false"> H$31 / H14</f>
-        <v>15.8037254320068</v>
-      </c>
-      <c r="AJ14" s="0" t="n">
-        <f aca="false"> J$31 / J14</f>
-        <v>10.4967612664546</v>
+      <c r="AH14" s="1" t="n">
+        <f aca="false">E$31 / E14</f>
+        <v>12.7839938616979</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <f aca="false">H$31 / H14</f>
+        <v>15.8585704071443</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <f aca="false">J$31 / J14</f>
+        <v>10.6466444442306</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,34 +1488,34 @@
         <v>30000000</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>115.343102</v>
+        <v>115.370286</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.838534</v>
+        <v>0.84522</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1.124851</v>
+        <v>0.992306</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>65.355896</v>
+        <v>65.02562</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>16.406193</v>
+        <v>15.974406</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>24.961461</v>
+        <v>24.816109</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1.018837</v>
+        <v>0.803895</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.423574</v>
+        <v>4.014071</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1.690957</v>
+        <v>2.438997</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0.051777</v>
+        <v>0.048325</v>
       </c>
       <c r="P15" s="1" t="n">
         <f aca="false">A15 * B15 * C15</f>
@@ -1523,67 +1523,67 @@
       </c>
       <c r="R15" s="1" t="n">
         <f aca="false">F15 / $E15</f>
-        <v>0.00726991025436441</v>
+        <v>0.00732614981989383</v>
       </c>
       <c r="S15" s="1" t="n">
         <f aca="false">G15 / $E15</f>
-        <v>0.00975221734542912</v>
+        <v>0.00860105348096303</v>
       </c>
       <c r="T15" s="2" t="n">
         <f aca="false">H15 / $E15</f>
-        <v>0.566621625972917</v>
-      </c>
-      <c r="U15" s="3" t="n">
+        <v>0.563625368840639</v>
+      </c>
+      <c r="U15" s="1" t="n">
         <f aca="false">I15 / $E15</f>
-        <v>0.142238180832002</v>
+        <v>0.138462047324733</v>
       </c>
       <c r="V15" s="4" t="n">
         <f aca="false">J15 / $E15</f>
-        <v>0.216410522754971</v>
+        <v>0.215099657462928</v>
       </c>
       <c r="W15" s="1" t="n">
         <f aca="false">K15 / $E15</f>
-        <v>0.00883309866245838</v>
+        <v>0.00696795533643732</v>
       </c>
       <c r="X15" s="1" t="n">
         <f aca="false">L15 / $E15</f>
-        <v>0.029681653611154</v>
+        <v>0.0347929361984939</v>
       </c>
       <c r="Y15" s="1" t="n">
         <f aca="false">M15 / $E15</f>
-        <v>0.0146602351651684</v>
+        <v>0.0211405994087594</v>
       </c>
       <c r="Z15" s="1" t="n">
         <f aca="false">N15 / $E15</f>
-        <v>0.000448895504821779</v>
+        <v>0.000418868685130936</v>
       </c>
       <c r="AB15" s="1" t="n">
         <f aca="false">E$32 / E15</f>
-        <v>24.550088482968</v>
+        <v>24.6962703637573</v>
       </c>
       <c r="AC15" s="1" t="n">
         <f aca="false">H$32/H15</f>
-        <v>30.7820015504033</v>
+        <v>31.1795826168209</v>
       </c>
       <c r="AD15" s="1" t="n">
         <f aca="false">J$32/J15</f>
-        <v>25.1680988144083</v>
+        <v>25.2741034462735</v>
       </c>
       <c r="AF15" s="1" t="n">
         <f aca="false">D15 / P15</f>
         <v>937500</v>
       </c>
-      <c r="AH15" s="0" t="n">
-        <f aca="false"> E$31 / E15</f>
-        <v>13.2902938226856</v>
-      </c>
-      <c r="AI15" s="0" t="n">
-        <f aca="false"> H$31 / H15</f>
-        <v>16.1749895219859</v>
-      </c>
-      <c r="AJ15" s="0" t="n">
-        <f aca="false"> J$31 / J15</f>
-        <v>13.2034130934884</v>
+      <c r="AH15" s="1" t="n">
+        <f aca="false">E$31 / E15</f>
+        <v>13.349495536485</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <f aca="false">H$31 / H15</f>
+        <v>16.338744805509</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <f aca="false">J$31 / J15</f>
+        <v>13.2426080978287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,34 +1600,34 @@
         <v>30000000</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>113.285946</v>
+        <v>113.511465</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.775859</v>
+        <v>0.751013</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1.151674</v>
+        <v>0.964809</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>64.279872</v>
+        <v>64.953608</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>16.15216</v>
+        <v>15.936333</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>22.381695</v>
+        <v>22.348389</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.583289</v>
+        <v>0.547638</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>3.567487</v>
+        <v>3.050296</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>3.925143</v>
+        <v>4.511718</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0.050492</v>
+        <v>0.047956</v>
       </c>
       <c r="P16" s="1" t="n">
         <f aca="false">A16 * B16 * C16</f>
@@ -1635,67 +1635,67 @@
       </c>
       <c r="R16" s="1" t="n">
         <f aca="false">F16 / $E16</f>
-        <v>0.00684867829942471</v>
+        <v>0.00661618630329544</v>
       </c>
       <c r="S16" s="1" t="n">
         <f aca="false">G16 / $E16</f>
-        <v>0.0101660800890518</v>
+        <v>0.00849966124567241</v>
       </c>
       <c r="T16" s="2" t="n">
         <f aca="false">H16 / $E16</f>
-        <v>0.567412589731122</v>
-      </c>
-      <c r="U16" s="3" t="n">
+        <v>0.572220682730154</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <f aca="false">I16 / $E16</f>
-        <v>0.142578674322056</v>
+        <v>0.14039403861099</v>
       </c>
       <c r="V16" s="4" t="n">
         <f aca="false">J16 / $E16</f>
-        <v>0.197568152010665</v>
+        <v>0.196882218020885</v>
       </c>
       <c r="W16" s="1" t="n">
         <f aca="false">K16 / $E16</f>
-        <v>0.00514882049005443</v>
+        <v>0.00482451706530261</v>
       </c>
       <c r="X16" s="1" t="n">
         <f aca="false">L16 / $E16</f>
-        <v>0.0314909935959753</v>
+        <v>0.0268721401842536</v>
       </c>
       <c r="Y16" s="1" t="n">
         <f aca="false">M16 / $E16</f>
-        <v>0.0346481018925331</v>
+        <v>0.0397468044307242</v>
       </c>
       <c r="Z16" s="1" t="n">
         <f aca="false">N16 / $E16</f>
-        <v>0.000445704006391049</v>
+        <v>0.000422477148013198</v>
       </c>
       <c r="AB16" s="1" t="n">
         <f aca="false">E$32 / E16</f>
-        <v>24.9958927826758</v>
+        <v>25.1006871860917</v>
       </c>
       <c r="AC16" s="1" t="n">
         <f aca="false">H$32/H16</f>
-        <v>31.2972821725594</v>
+        <v>31.2141504287183</v>
       </c>
       <c r="AD16" s="1" t="n">
         <f aca="false">J$32/J16</f>
-        <v>28.0690321711559</v>
+        <v>28.0648822606408</v>
       </c>
       <c r="AF16" s="1" t="n">
         <f aca="false">D16 / P16</f>
         <v>937500</v>
       </c>
-      <c r="AH16" s="0" t="n">
-        <f aca="false"> E$31 / E16</f>
-        <v>13.5316318583772</v>
-      </c>
-      <c r="AI16" s="0" t="n">
-        <f aca="false"> H$31 / H16</f>
-        <v>16.4457535478602</v>
-      </c>
-      <c r="AJ16" s="0" t="n">
-        <f aca="false"> J$31 / J16</f>
-        <v>14.7252690647424</v>
+      <c r="AH16" s="1" t="n">
+        <f aca="false">E$31 / E16</f>
+        <v>13.5681018476856</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <f aca="false">H$31 / H16</f>
+        <v>16.3568590523871</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <f aca="false">J$31 / J16</f>
+        <v>14.7048633348918</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,34 +1712,34 @@
         <v>30000000</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>113.592283</v>
+        <v>113.282482</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.781544</v>
+        <v>0.767767</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1.506929</v>
+        <v>1.737624</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>64.811726</v>
+        <v>65.417822</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>16.891996</v>
+        <v>16.099857</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>21.609962</v>
+        <v>21.640286</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.637329</v>
+        <v>0.566672</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>4.292576</v>
+        <v>4.05194</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>2.626773</v>
+        <v>2.576109</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.051244</v>
+        <v>0.047645</v>
       </c>
       <c r="P17" s="1" t="n">
         <f aca="false">A17 * B17 * C17</f>
@@ -1747,67 +1747,67 @@
       </c>
       <c r="R17" s="1" t="n">
         <f aca="false">F17 / $E17</f>
-        <v>0.0068802561173984</v>
+        <v>0.00677745567050694</v>
       </c>
       <c r="S17" s="1" t="n">
         <f aca="false">G17 / $E17</f>
-        <v>0.0132661212557899</v>
+        <v>0.0153388588360908</v>
       </c>
       <c r="T17" s="2" t="n">
         <f aca="false">H17 / $E17</f>
-        <v>0.570564516253274</v>
-      </c>
-      <c r="U17" s="3" t="n">
+        <v>0.577475182791281</v>
+      </c>
+      <c r="U17" s="1" t="n">
         <f aca="false">I17 / $E17</f>
-        <v>0.148707249769775</v>
+        <v>0.142121329933431</v>
       </c>
       <c r="V17" s="4" t="n">
         <f aca="false">J17 / $E17</f>
-        <v>0.190241462089463</v>
+        <v>0.191029412650051</v>
       </c>
       <c r="W17" s="1" t="n">
         <f aca="false">K17 / $E17</f>
-        <v>0.00561067163338904</v>
+        <v>0.00500229152818174</v>
       </c>
       <c r="X17" s="1" t="n">
         <f aca="false">L17 / $E17</f>
-        <v>0.0377893276429703</v>
+        <v>0.0357684606521951</v>
       </c>
       <c r="Y17" s="1" t="n">
         <f aca="false">M17 / $E17</f>
-        <v>0.0231245726437244</v>
+        <v>0.022740576958757</v>
       </c>
       <c r="Z17" s="1" t="n">
         <f aca="false">N17 / $E17</f>
-        <v>0.00045112219463007</v>
+        <v>0.000420585770710779</v>
       </c>
       <c r="AB17" s="1" t="n">
         <f aca="false">E$32 / E17</f>
-        <v>24.9284835660887</v>
+        <v>25.1514243393784</v>
       </c>
       <c r="AC17" s="1" t="n">
         <f aca="false">H$32/H17</f>
-        <v>31.0404523403682</v>
+        <v>30.9926504584637</v>
       </c>
       <c r="AD17" s="1" t="n">
         <f aca="false">J$32/J17</f>
-        <v>29.0714308983977</v>
+        <v>28.9832078004884</v>
       </c>
       <c r="AF17" s="1" t="n">
         <f aca="false">D17 / P17</f>
         <v>937500</v>
       </c>
-      <c r="AH17" s="0" t="n">
-        <f aca="false"> E$31 / E17</f>
-        <v>13.4951395950022</v>
-      </c>
-      <c r="AI17" s="0" t="n">
-        <f aca="false"> H$31 / H17</f>
-        <v>16.3107974165045</v>
-      </c>
-      <c r="AJ17" s="0" t="n">
-        <f aca="false"> J$31 / J17</f>
-        <v>15.2511365360106</v>
+      <c r="AH17" s="1" t="n">
+        <f aca="false">E$31 / E17</f>
+        <v>13.5955276650806</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <f aca="false">H$31 / H17</f>
+        <v>16.2407884964437</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <f aca="false">J$31 / J17</f>
+        <v>15.1860287798415</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,34 +1824,34 @@
         <v>30000000</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>230.48144</v>
+        <v>229.637994</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1.532477</v>
+        <v>1.501939</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>8.083206</v>
+        <v>7.602438</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>129.359385</v>
+        <v>130.352061</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>13.351301</v>
+        <v>12.734624</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>63.432477</v>
+        <v>63.216203</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>4.564599</v>
+        <v>4.283789</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>9.361933</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>0.000106</v>
+        <v>9.165087</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>9.3E-005</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>0.081645</v>
+        <v>0.079122</v>
       </c>
       <c r="P18" s="1" t="n">
         <f aca="false">A18 * B18 * C18</f>
@@ -1859,51 +1859,51 @@
       </c>
       <c r="R18" s="1" t="n">
         <f aca="false">F18 / $E18</f>
-        <v>0.00664902562219327</v>
+        <v>0.00654046385721345</v>
       </c>
       <c r="S18" s="1" t="n">
         <f aca="false">G18 / $E18</f>
-        <v>0.0350709627638564</v>
+        <v>0.0331061853815009</v>
       </c>
       <c r="T18" s="2" t="n">
         <f aca="false">H18 / $E18</f>
-        <v>0.561257275206194</v>
-      </c>
-      <c r="U18" s="3" t="n">
+        <v>0.567641524511837</v>
+      </c>
+      <c r="U18" s="1" t="n">
         <f aca="false">I18 / $E18</f>
-        <v>0.0579278791385545</v>
+        <v>0.0554552135653998</v>
       </c>
       <c r="V18" s="4" t="n">
         <f aca="false">J18 / $E18</f>
-        <v>0.275217288645888</v>
+        <v>0.275286340465071</v>
       </c>
       <c r="W18" s="1" t="n">
         <f aca="false">K18 / $E18</f>
-        <v>0.0198046272185734</v>
+        <v>0.0186545306609846</v>
       </c>
       <c r="X18" s="1" t="n">
         <f aca="false">L18 / $E18</f>
-        <v>0.0406190320574186</v>
+        <v>0.039911021866878</v>
       </c>
       <c r="Y18" s="1" t="n">
         <f aca="false">M18 / $E18</f>
-        <v>4.59906880137507E-007</v>
+        <v>4.04985248216373E-007</v>
       </c>
       <c r="Z18" s="1" t="n">
         <f aca="false">N18 / $E18</f>
-        <v>0.000354236766309686</v>
+        <v>0.000344550997950278</v>
       </c>
       <c r="AB18" s="1" t="n">
         <f aca="false">E$32 / E18</f>
-        <v>12.2859496191971</v>
+        <v>12.4074232027998</v>
       </c>
       <c r="AC18" s="1" t="n">
         <f aca="false">H$32/H18</f>
-        <v>15.5519082902257</v>
+        <v>15.5538138441862</v>
       </c>
       <c r="AD18" s="1" t="n">
         <f aca="false">J$32/J18</f>
-        <v>9.90395688000644</v>
+        <v>9.92158459754377</v>
       </c>
       <c r="AF18" s="1" t="n">
         <f aca="false">D18 / P18</f>
@@ -1924,34 +1924,34 @@
         <v>30000000</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>231.745075</v>
+        <v>230.69497</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>1.632608</v>
+        <v>1.751504</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>2.457779</v>
+        <v>2.465977</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>136.753482</v>
+        <v>134.889231</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>14.857401</v>
+        <v>15.696878</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>60.4208</v>
+        <v>61.792116</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>1.913758</v>
+        <v>1.928301</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>9.581479</v>
+        <v>10.714491</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>3.082214</v>
+        <v>0.485302</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>0.083728</v>
+        <v>0.081355</v>
       </c>
       <c r="P19" s="1" t="n">
         <f aca="false">A19 * B19 * C19</f>
@@ -1959,67 +1959,67 @@
       </c>
       <c r="R19" s="1" t="n">
         <f aca="false">F19 / $E19</f>
-        <v>0.00704484442657519</v>
+        <v>0.00759229384151722</v>
       </c>
       <c r="S19" s="1" t="n">
         <f aca="false">G19 / $E19</f>
-        <v>0.0106055285101528</v>
+        <v>0.0106893401273552</v>
       </c>
       <c r="T19" s="2" t="n">
         <f aca="false">H19 / $E19</f>
-        <v>0.590103077702946</v>
-      </c>
-      <c r="U19" s="3" t="n">
+        <v>0.584708158136261</v>
+      </c>
+      <c r="U19" s="1" t="n">
         <f aca="false">I19 / $E19</f>
-        <v>0.064110967622505</v>
+        <v>0.0680417002590043</v>
       </c>
       <c r="V19" s="4" t="n">
         <f aca="false">J19 / $E19</f>
-        <v>0.260720966777827</v>
+        <v>0.267852029890379</v>
       </c>
       <c r="W19" s="1" t="n">
         <f aca="false">K19 / $E19</f>
-        <v>0.00825803094197363</v>
+        <v>0.00835866078917976</v>
       </c>
       <c r="X19" s="1" t="n">
         <f aca="false">L19 / $E19</f>
-        <v>0.0413449088400261</v>
+        <v>0.046444406655247</v>
       </c>
       <c r="Y19" s="1" t="n">
         <f aca="false">M19 / $E19</f>
-        <v>0.0133000194286761</v>
+        <v>0.00210365228162539</v>
       </c>
       <c r="Z19" s="1" t="n">
         <f aca="false">N19 / $E19</f>
-        <v>0.000361293546367706</v>
+        <v>0.000352651815512059</v>
       </c>
       <c r="AB19" s="1" t="n">
         <f aca="false">E$32 / E19</f>
-        <v>12.218958094363</v>
+        <v>12.3505760658761</v>
       </c>
       <c r="AC19" s="1" t="n">
         <f aca="false">H$32/H19</f>
-        <v>14.7110352334575</v>
+        <v>15.0306416306873</v>
       </c>
       <c r="AD19" s="1" t="n">
         <f aca="false">J$32/J19</f>
-        <v>10.3976199752403</v>
+        <v>10.1502415939276</v>
       </c>
       <c r="AF19" s="1" t="n">
         <f aca="false">D19 / P19</f>
         <v>1875000</v>
       </c>
-      <c r="AH19" s="0" t="n">
-        <f aca="false"> E$31 / E19</f>
-        <v>6.61478443932412</v>
-      </c>
-      <c r="AI19" s="0" t="n">
-        <f aca="false"> H$31 / H19</f>
-        <v>7.73019390467879</v>
-      </c>
-      <c r="AJ19" s="0" t="n">
-        <f aca="false"> J$31 / J19</f>
-        <v>5.45468582011493</v>
+      <c r="AH19" s="1" t="n">
+        <f aca="false">E$31 / E19</f>
+        <v>6.6760671808319</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <f aca="false">H$31 / H19</f>
+        <v>7.8763664313573</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <f aca="false">J$31 / J19</f>
+        <v>5.31831611010052</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,34 +2036,34 @@
         <v>30000000</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>216.158964</v>
+        <v>217.820713</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>1.657979</v>
+        <v>1.632148</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>1.7135</v>
+        <v>1.674139</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>131.728486</v>
+        <v>132.762481</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>17.843931</v>
+        <v>18.785202</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>50.62921</v>
+        <v>50.946189</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.533159</v>
+        <v>1.678297</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>8.216331</v>
+        <v>8.195226</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>1.976316</v>
+        <v>1.294257</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>0.086028</v>
+        <v>0.083744</v>
       </c>
       <c r="P20" s="1" t="n">
         <f aca="false">A20 * B20 * C20</f>
@@ -2071,67 +2071,67 @@
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">F20 / $E20</f>
-        <v>0.0076701838744934</v>
+        <v>0.00749307987069164</v>
       </c>
       <c r="S20" s="1" t="n">
         <f aca="false">G20 / $E20</f>
-        <v>0.00792703651188854</v>
+        <v>0.00768585768057788</v>
       </c>
       <c r="T20" s="2" t="n">
         <f aca="false">H20 / $E20</f>
-        <v>0.609405613176421</v>
-      </c>
-      <c r="U20" s="3" t="n">
+        <v>0.609503472702341</v>
+      </c>
+      <c r="U20" s="1" t="n">
         <f aca="false">I20 / $E20</f>
-        <v>0.0825500394237641</v>
+        <v>0.086241577953149</v>
       </c>
       <c r="V20" s="4" t="n">
         <f aca="false">J20 / $E20</f>
-        <v>0.234222116275502</v>
+        <v>0.233890470278646</v>
       </c>
       <c r="W20" s="1" t="n">
         <f aca="false">K20 / $E20</f>
-        <v>0.00709273847185907</v>
+        <v>0.0077049467742767</v>
       </c>
       <c r="X20" s="1" t="n">
         <f aca="false">L20 / $E20</f>
-        <v>0.0380105957576666</v>
+        <v>0.0376237222214951</v>
       </c>
       <c r="Y20" s="1" t="n">
         <f aca="false">M20 / $E20</f>
-        <v>0.00914288245756026</v>
+        <v>0.00594184539282084</v>
       </c>
       <c r="Z20" s="1" t="n">
         <f aca="false">N20 / $E20</f>
-        <v>0.000397984883014151</v>
+        <v>0.000384462978045619</v>
       </c>
       <c r="AB20" s="1" t="n">
         <f aca="false">E$32 / E20</f>
-        <v>13.1000043097912</v>
+        <v>13.0805548093124</v>
       </c>
       <c r="AC20" s="1" t="n">
         <f aca="false">H$32/H20</f>
-        <v>15.2722114486308</v>
+        <v>15.2714206282421</v>
       </c>
       <c r="AD20" s="1" t="n">
         <f aca="false">J$32/J20</f>
-        <v>12.4084993030703</v>
+        <v>12.3111250971098</v>
       </c>
       <c r="AF20" s="1" t="n">
         <f aca="false">D20 / P20</f>
         <v>1875000</v>
       </c>
-      <c r="AH20" s="0" t="n">
-        <f aca="false"> E$31 / E20</f>
-        <v>7.09174251963939</v>
-      </c>
-      <c r="AI20" s="0" t="n">
-        <f aca="false"> H$31 / H20</f>
-        <v>8.02507464482663</v>
-      </c>
-      <c r="AJ20" s="0" t="n">
-        <f aca="false"> J$31 / J20</f>
-        <v>6.50961136861507</v>
+      <c r="AH20" s="1" t="n">
+        <f aca="false">E$31 / E20</f>
+        <v>7.07065502076471</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <f aca="false">H$31 / H20</f>
+        <v>8.00253959550515</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <f aca="false">J$31 / J20</f>
+        <v>6.45053167764914</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,34 +2148,34 @@
         <v>30000000</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>219.821754</v>
+        <v>220.868464</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>1.567739</v>
+        <v>1.546885</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>1.303355</v>
+        <v>1.250026</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>128.494194</v>
+        <v>129.288549</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>29.545797</v>
+        <v>29.36207</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>45.39473</v>
+        <v>45.549845</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>1.320052</v>
+        <v>1.335333</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>7.537848</v>
+        <v>7.475701</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>3.819387</v>
+        <v>4.226631</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>0.082018</v>
+        <v>0.083416</v>
       </c>
       <c r="P21" s="1" t="n">
         <f aca="false">A21 * B21 * C21</f>
@@ -2183,67 +2183,67 @@
       </c>
       <c r="R21" s="1" t="n">
         <f aca="false">F21 / $E21</f>
-        <v>0.00713186466522326</v>
+        <v>0.00700364810795261</v>
       </c>
       <c r="S21" s="1" t="n">
         <f aca="false">G21 / $E21</f>
-        <v>0.0059291447560736</v>
+        <v>0.00565959475319211</v>
       </c>
       <c r="T21" s="2" t="n">
         <f aca="false">H21 / $E21</f>
-        <v>0.584538116277609</v>
-      </c>
-      <c r="U21" s="3" t="n">
+        <v>0.585364459273824</v>
+      </c>
+      <c r="U21" s="1" t="n">
         <f aca="false">I21 / $E21</f>
-        <v>0.134407975836641</v>
+        <v>0.132939168717178</v>
       </c>
       <c r="V21" s="4" t="n">
         <f aca="false">J21 / $E21</f>
-        <v>0.206506995663405</v>
+        <v>0.206230641419229</v>
       </c>
       <c r="W21" s="1" t="n">
         <f aca="false">K21 / $E21</f>
-        <v>0.0060051017516674</v>
+        <v>0.00604582915920491</v>
       </c>
       <c r="X21" s="1" t="n">
         <f aca="false">L21 / $E21</f>
-        <v>0.0342907281141975</v>
+        <v>0.033846846510419</v>
       </c>
       <c r="Y21" s="1" t="n">
         <f aca="false">M21 / $E21</f>
-        <v>0.0173749273240718</v>
+        <v>0.0191364168675524</v>
       </c>
       <c r="Z21" s="1" t="n">
         <f aca="false">N21 / $E21</f>
-        <v>0.000373111389148501</v>
+        <v>0.000377672749152636</v>
       </c>
       <c r="AB21" s="1" t="n">
         <f aca="false">E$32 / E21</f>
-        <v>12.881724890613</v>
+        <v>12.9000569995362</v>
       </c>
       <c r="AC21" s="1" t="n">
         <f aca="false">H$32/H21</f>
-        <v>15.656624080618</v>
+        <v>15.6817576396499</v>
       </c>
       <c r="AD21" s="1" t="n">
         <f aca="false">J$32/J21</f>
-        <v>13.8393270981015</v>
+        <v>13.7696386453126</v>
       </c>
       <c r="AF21" s="1" t="n">
         <f aca="false">D21 / P21</f>
         <v>1875000</v>
       </c>
-      <c r="AH21" s="0" t="n">
-        <f aca="false"> E$31 / E21</f>
-        <v>6.97357603651912</v>
-      </c>
-      <c r="AI21" s="0" t="n">
-        <f aca="false"> H$31 / H21</f>
-        <v>8.22707159048758</v>
-      </c>
-      <c r="AJ21" s="0" t="n">
-        <f aca="false"> J$31 / J21</f>
-        <v>7.26023661777479</v>
+      <c r="AH21" s="1" t="n">
+        <f aca="false">E$31 / E21</f>
+        <v>6.97308746621247</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <f aca="false">H$31 / H21</f>
+        <v>8.21756465841379</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <f aca="false">J$31 / J21</f>
+        <v>7.21473379327635</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,34 +2260,34 @@
         <v>30000000</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>213.72404</v>
+        <v>214.751315</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1.484881</v>
+        <v>1.457159</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>1.520088</v>
+        <v>1.465962</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>126.816988</v>
+        <v>127.827552</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>27.837142</v>
+        <v>27.942552</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>42.22176</v>
+        <v>42.270704</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>0.970456</v>
+        <v>0.972169</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>6.747687</v>
+        <v>6.672698</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>5.329201</v>
+        <v>5.356128</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0.081537</v>
+        <v>0.079964</v>
       </c>
       <c r="P22" s="1" t="n">
         <f aca="false">A22 * B22 * C22</f>
@@ -2295,67 +2295,67 @@
       </c>
       <c r="R22" s="1" t="n">
         <f aca="false">F22 / $E22</f>
-        <v>0.00694765549069726</v>
+        <v>0.00678533214103951</v>
       </c>
       <c r="S22" s="1" t="n">
         <f aca="false">G22 / $E22</f>
-        <v>0.00711238660845079</v>
+        <v>0.0068263237410211</v>
       </c>
       <c r="T22" s="2" t="n">
         <f aca="false">H22 / $E22</f>
-        <v>0.593367914999174</v>
-      </c>
-      <c r="U22" s="3" t="n">
+        <v>0.59523524687148</v>
+      </c>
+      <c r="U22" s="1" t="n">
         <f aca="false">I22 / $E22</f>
-        <v>0.130248061940061</v>
+        <v>0.13011585982605</v>
       </c>
       <c r="V22" s="4" t="n">
         <f aca="false">J22 / $E22</f>
-        <v>0.197552694586908</v>
+        <v>0.196835600284916</v>
       </c>
       <c r="W22" s="1" t="n">
         <f aca="false">K22 / $E22</f>
-        <v>0.00454069649815716</v>
+        <v>0.00452695248920827</v>
       </c>
       <c r="X22" s="1" t="n">
         <f aca="false">L22 / $E22</f>
-        <v>0.0315719607396529</v>
+        <v>0.0310717445432173</v>
       </c>
       <c r="Y22" s="1" t="n">
         <f aca="false">M22 / $E22</f>
-        <v>0.0249349628614544</v>
+        <v>0.0249410719557177</v>
       </c>
       <c r="Z22" s="1" t="n">
         <f aca="false">N22 / $E22</f>
-        <v>0.00038150598313601</v>
+        <v>0.000372356276374838</v>
       </c>
       <c r="AB22" s="1" t="n">
         <f aca="false">E$32 / E22</f>
-        <v>13.2492505756489</v>
+        <v>13.2675125877576</v>
       </c>
       <c r="AC22" s="1" t="n">
         <f aca="false">H$32/H22</f>
-        <v>15.8636892716613</v>
+        <v>15.8609913064752</v>
       </c>
       <c r="AD22" s="1" t="n">
         <f aca="false">J$32/J22</f>
-        <v>14.8793540818763</v>
+        <v>14.8378154761747</v>
       </c>
       <c r="AF22" s="1" t="n">
         <f aca="false">D22 / P22</f>
         <v>1875000</v>
       </c>
-      <c r="AH22" s="0" t="n">
-        <f aca="false"> E$31 / E22</f>
-        <v>7.17253761439284</v>
-      </c>
-      <c r="AI22" s="0" t="n">
-        <f aca="false"> H$31 / H22</f>
-        <v>8.3358779424725</v>
-      </c>
-      <c r="AJ22" s="0" t="n">
-        <f aca="false"> J$31 / J22</f>
-        <v>7.80584421397876</v>
+      <c r="AH22" s="1" t="n">
+        <f aca="false">E$31 / E22</f>
+        <v>7.17171449217901</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <f aca="false">H$31 / H22</f>
+        <v>8.31148679902749</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <f aca="false">J$31 / J22</f>
+        <v>7.77441525459335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,34 +2372,34 @@
         <v>30000000</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>427.160671</v>
+        <v>429.47629</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>2.985907</v>
+        <v>2.953965</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9.872152</v>
+        <v>9.64604</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>257.497323</v>
+        <v>261.213621</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>20.05735</v>
+        <v>17.989279</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>114.502024</v>
+        <v>114.964664</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>6.679105</v>
+        <v>6.706904</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>14.054581</v>
+        <v>14.176115</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.000103</v>
+        <v>0.000108</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>0.151706</v>
+        <v>0.151911</v>
       </c>
       <c r="P23" s="1" t="n">
         <f aca="false">A23 * B23 * C23</f>
@@ -2407,51 +2407,51 @@
       </c>
       <c r="R23" s="1" t="n">
         <f aca="false">F23 / $E23</f>
-        <v>0.00699012620476008</v>
+        <v>0.00687806304743855</v>
       </c>
       <c r="S23" s="1" t="n">
         <f aca="false">G23 / $E23</f>
-        <v>0.0231110976974751</v>
+        <v>0.022460005882979</v>
       </c>
       <c r="T23" s="2" t="n">
         <f aca="false">H23 / $E23</f>
-        <v>0.602811402082473</v>
-      </c>
-      <c r="U23" s="3" t="n">
+        <v>0.608214299792894</v>
+      </c>
+      <c r="U23" s="1" t="n">
         <f aca="false">I23 / $E23</f>
-        <v>0.0469550484435867</v>
+        <v>0.0418865474506171</v>
       </c>
       <c r="V23" s="4" t="n">
         <f aca="false">J23 / $E23</f>
-        <v>0.26805376003354</v>
+        <v>0.267685706235378</v>
       </c>
       <c r="W23" s="1" t="n">
         <f aca="false">K23 / $E23</f>
-        <v>0.0156360485724586</v>
+        <v>0.0156164709348681</v>
       </c>
       <c r="X23" s="1" t="n">
         <f aca="false">L23 / $E23</f>
-        <v>0.0329023291566091</v>
+        <v>0.033007910634601</v>
       </c>
       <c r="Y23" s="1" t="n">
         <f aca="false">M23 / $E23</f>
-        <v>2.41127067618077E-007</v>
+        <v>2.51469062471411E-007</v>
       </c>
       <c r="Z23" s="1" t="n">
         <f aca="false">N23 / $E23</f>
-        <v>0.000355149737088038</v>
+        <v>0.000353712192121246</v>
       </c>
       <c r="AB23" s="1" t="n">
         <f aca="false">E$32 / E23</f>
-        <v>6.62908257300682</v>
+        <v>6.63416314553709</v>
       </c>
       <c r="AC23" s="1" t="n">
         <f aca="false">H$32/H23</f>
-        <v>7.8128396387251</v>
+        <v>7.76173801059172</v>
       </c>
       <c r="AD23" s="1" t="n">
         <f aca="false">J$32/J23</f>
-        <v>5.48664988664305</v>
+        <v>5.45563205403706</v>
       </c>
       <c r="AF23" s="1" t="n">
         <f aca="false">D23 / P23</f>
@@ -2472,34 +2472,34 @@
         <v>30000000</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>420.440969</v>
+        <v>423.571591</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>3.197287</v>
+        <v>3.144563</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>3.145426</v>
+        <v>3.168982</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>266.506249</v>
+        <v>269.720846</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>22.801733</v>
+        <v>23.550357</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>100.177551</v>
+        <v>101.191681</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>2.937449</v>
+        <v>2.764809</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>14.874282</v>
+        <v>14.856458</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>5.183689</v>
+        <v>3.574497</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>0.151284</v>
+        <v>0.150124</v>
       </c>
       <c r="P24" s="1" t="n">
         <f aca="false">A24 * B24 * C24</f>
@@ -2507,67 +2507,67 @@
       </c>
       <c r="R24" s="1" t="n">
         <f aca="false">F24 / $E24</f>
-        <v>0.00760460382251664</v>
+        <v>0.0074239232913994</v>
       </c>
       <c r="S24" s="1" t="n">
         <f aca="false">G24 / $E24</f>
-        <v>0.00748125475850095</v>
+        <v>0.00748157352224314</v>
       </c>
       <c r="T24" s="2" t="n">
         <f aca="false">H24 / $E24</f>
-        <v>0.633873168054657</v>
-      </c>
-      <c r="U24" s="3" t="n">
+        <v>0.636777469809112</v>
+      </c>
+      <c r="U24" s="1" t="n">
         <f aca="false">I24 / $E24</f>
-        <v>0.0542328999341641</v>
+        <v>0.0555994724395952</v>
       </c>
       <c r="V24" s="4" t="n">
         <f aca="false">J24 / $E24</f>
-        <v>0.238267814952163</v>
+        <v>0.238901010242682</v>
       </c>
       <c r="W24" s="1" t="n">
         <f aca="false">K24 / $E24</f>
-        <v>0.00698659078582801</v>
+        <v>0.00652737119000977</v>
       </c>
       <c r="X24" s="1" t="n">
         <f aca="false">L24 / $E24</f>
-        <v>0.0353778130503738</v>
+        <v>0.03507425501537</v>
       </c>
       <c r="Y24" s="1" t="n">
         <f aca="false">M24 / $E24</f>
-        <v>0.0123291719461335</v>
+        <v>0.00843894415005751</v>
       </c>
       <c r="Z24" s="1" t="n">
         <f aca="false">N24 / $E24</f>
-        <v>0.00035982221323441</v>
+        <v>0.000354424147392831</v>
       </c>
       <c r="AB24" s="1" t="n">
         <f aca="false">E$32 / E24</f>
-        <v>6.7350319516555</v>
+        <v>6.72664511865245</v>
       </c>
       <c r="AC24" s="1" t="n">
         <f aca="false">H$32/H24</f>
-        <v>7.54873590975347</v>
+        <v>7.51692618893832</v>
       </c>
       <c r="AD24" s="1" t="n">
         <f aca="false">J$32/J24</f>
-        <v>6.27119060836295</v>
+        <v>6.19818644973395</v>
       </c>
       <c r="AF24" s="1" t="n">
         <f aca="false">D24 / P24</f>
         <v>3750000</v>
       </c>
-      <c r="AH24" s="0" t="n">
-        <f aca="false"> E$31 / E24</f>
-        <v>3.64603791977275</v>
-      </c>
-      <c r="AI24" s="0" t="n">
-        <f aca="false"> H$31 / H24</f>
-        <v>3.96662718779251</v>
-      </c>
-      <c r="AJ24" s="0" t="n">
-        <f aca="false"> J$31 / J24</f>
-        <v>3.28992351789474</v>
+      <c r="AH24" s="1" t="n">
+        <f aca="false">E$31 / E24</f>
+        <v>3.6360680242127</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <f aca="false">H$31 / H24</f>
+        <v>3.9390244645755</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <f aca="false">J$31 / J24</f>
+        <v>3.24759903929257</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,34 +2584,34 @@
         <v>30000000</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>417.040685</v>
+        <v>419.617463</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>3.116271</v>
+        <v>3.069261</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>2.837506</v>
+        <v>2.821817</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>265.777927</v>
+        <v>267.846127</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>29.632565</v>
+        <v>30.969357</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>90.660999</v>
+        <v>91.566269</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>2.594157</v>
+        <v>2.583623</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>13.948038</v>
+        <v>13.679135</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>6.588016</v>
+        <v>5.517976</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>0.154154</v>
+        <v>0.154123</v>
       </c>
       <c r="P25" s="1" t="n">
         <f aca="false">A25 * B25 * C25</f>
@@ -2619,67 +2619,67 @@
       </c>
       <c r="R25" s="1" t="n">
         <f aca="false">F25 / $E25</f>
-        <v>0.00747234289623325</v>
+        <v>0.00731442628258777</v>
       </c>
       <c r="S25" s="1" t="n">
         <f aca="false">G25 / $E25</f>
-        <v>0.00680390691378228</v>
+        <v>0.0067247368110607</v>
       </c>
       <c r="T25" s="2" t="n">
         <f aca="false">H25 / $E25</f>
-        <v>0.637294960802206</v>
-      </c>
-      <c r="U25" s="3" t="n">
+        <v>0.638310248303465</v>
+      </c>
+      <c r="U25" s="1" t="n">
         <f aca="false">I25 / $E25</f>
-        <v>0.0710543744670859</v>
+        <v>0.0738037849487689</v>
       </c>
       <c r="V25" s="4" t="n">
         <f aca="false">J25 / $E25</f>
-        <v>0.217391257641925</v>
+        <v>0.218213675725884</v>
       </c>
       <c r="W25" s="1" t="n">
         <f aca="false">K25 / $E25</f>
-        <v>0.00622039310145484</v>
+        <v>0.00615709122668234</v>
       </c>
       <c r="X25" s="1" t="n">
         <f aca="false">L25 / $E25</f>
-        <v>0.0334452692547251</v>
+        <v>0.0325990603494021</v>
       </c>
       <c r="Y25" s="1" t="n">
         <f aca="false">M25 / $E25</f>
-        <v>0.0157970582654304</v>
+        <v>0.0131500151603557</v>
       </c>
       <c r="Z25" s="1" t="n">
         <f aca="false">N25 / $E25</f>
-        <v>0.000369637796849485</v>
+        <v>0.000367294056110339</v>
       </c>
       <c r="AB25" s="1" t="n">
         <f aca="false">E$32 / E25</f>
-        <v>6.78994511051122</v>
+        <v>6.79003146015398</v>
       </c>
       <c r="AC25" s="1" t="n">
         <f aca="false">H$32/H25</f>
-        <v>7.56942201599759</v>
+        <v>7.5695389502496</v>
       </c>
       <c r="AD25" s="1" t="n">
         <f aca="false">J$32/J25</f>
-        <v>6.92946828216618</v>
+        <v>6.84973749449156</v>
       </c>
       <c r="AF25" s="1" t="n">
         <f aca="false">D25 / P25</f>
         <v>3750000</v>
       </c>
-      <c r="AH25" s="0" t="n">
-        <f aca="false"> E$31 / E25</f>
-        <v>3.67576538965257</v>
-      </c>
-      <c r="AI25" s="0" t="n">
-        <f aca="false"> H$31 / H25</f>
-        <v>3.97749709666446</v>
-      </c>
-      <c r="AJ25" s="0" t="n">
-        <f aca="false"> J$31 / J25</f>
-        <v>3.63526196087912</v>
+      <c r="AH25" s="1" t="n">
+        <f aca="false">E$31 / E25</f>
+        <v>3.67033132269807</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <f aca="false">H$31 / H25</f>
+        <v>3.96659463737551</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <f aca="false">J$31 / J25</f>
+        <v>3.58898543742128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,34 +2696,34 @@
         <v>30000000</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>429.9384</v>
+        <v>431.70816</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>3.044331</v>
+        <v>2.972319</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>2.36076</v>
+        <v>2.359141</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>257.701862</v>
+        <v>259.751843</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>49.211466</v>
+        <v>48.842923</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>84.918745</v>
+        <v>85.127147</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>2.085417</v>
+        <v>2.092444</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>12.748072</v>
+        <v>12.556382</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>15.849056</v>
+        <v>16.267708</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>0.161465</v>
+        <v>0.164143</v>
       </c>
       <c r="P26" s="1" t="n">
         <f aca="false">A26 * B26 * C26</f>
@@ -2731,67 +2731,67 @@
       </c>
       <c r="R26" s="1" t="n">
         <f aca="false">F26 / $E26</f>
-        <v>0.00708085390837385</v>
+        <v>0.00688501926857255</v>
       </c>
       <c r="S26" s="1" t="n">
         <f aca="false">G26 / $E26</f>
-        <v>0.00549092614197755</v>
+        <v>0.00546466622266301</v>
       </c>
       <c r="T26" s="2" t="n">
         <f aca="false">H26 / $E26</f>
-        <v>0.59939252227761</v>
-      </c>
-      <c r="U26" s="3" t="n">
+        <v>0.601683885243216</v>
+      </c>
+      <c r="U26" s="1" t="n">
         <f aca="false">I26 / $E26</f>
-        <v>0.114461667066724</v>
+        <v>0.113138753272581</v>
       </c>
       <c r="V26" s="4" t="n">
         <f aca="false">J26 / $E26</f>
-        <v>0.197513748481178</v>
+        <v>0.197186791651101</v>
       </c>
       <c r="W26" s="1" t="n">
         <f aca="false">K26 / $E26</f>
-        <v>0.00485050183933326</v>
+        <v>0.00484689471702365</v>
       </c>
       <c r="X26" s="1" t="n">
         <f aca="false">L26 / $E26</f>
-        <v>0.0296509267374117</v>
+        <v>0.0290853478423943</v>
       </c>
       <c r="Y26" s="1" t="n">
         <f aca="false">M26 / $E26</f>
-        <v>0.0368635506854005</v>
+        <v>0.037682187892858</v>
       </c>
       <c r="Z26" s="1" t="n">
         <f aca="false">N26 / $E26</f>
-        <v>0.00037555380026534</v>
+        <v>0.000380217506196779</v>
       </c>
       <c r="AB26" s="1" t="n">
         <f aca="false">E$32 / E26</f>
-        <v>6.58625365866366</v>
+        <v>6.59986546235309</v>
       </c>
       <c r="AC26" s="1" t="n">
         <f aca="false">H$32/H26</f>
-        <v>7.80663855661237</v>
+        <v>7.80541792344472</v>
       </c>
       <c r="AD26" s="1" t="n">
         <f aca="false">J$32/J26</f>
-        <v>7.39804288205154</v>
+        <v>7.36786005526533</v>
       </c>
       <c r="AF26" s="1" t="n">
         <f aca="false">D26 / P26</f>
         <v>3750000</v>
       </c>
-      <c r="AH26" s="0" t="n">
-        <f aca="false"> E$31 / E26</f>
-        <v>3.56549616410165</v>
-      </c>
-      <c r="AI26" s="0" t="n">
-        <f aca="false"> H$31 / H26</f>
-        <v>4.10214705006672</v>
-      </c>
-      <c r="AJ26" s="0" t="n">
-        <f aca="false"> J$31 / J26</f>
-        <v>3.88108044931658</v>
+      <c r="AH26" s="1" t="n">
+        <f aca="false">E$31 / E26</f>
+        <v>3.56753765784737</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <f aca="false">H$31 / H26</f>
+        <v>4.09020008762748</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <f aca="false">J$31 / J26</f>
+        <v>3.86046070591324</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,34 +2808,34 @@
         <v>30000000</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>761.711275</v>
+        <v>766.773113</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>5.826534</v>
+        <v>5.739722</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>10.142203</v>
+        <v>10.253944</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>507.525692</v>
+        <v>511.819155</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>21.828321</v>
+        <v>22.362047</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>181.845076</v>
+        <v>181.961659</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>9.137432</v>
+        <v>8.934303</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>22.642714</v>
+        <v>22.954488</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.000111</v>
+        <v>0.000115</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>0.154704</v>
+        <v>0.155916</v>
       </c>
       <c r="P27" s="1" t="n">
         <f aca="false">A27 * B27 * C27</f>
@@ -2843,51 +2843,51 @@
       </c>
       <c r="R27" s="1" t="n">
         <f aca="false">F27 / $E27</f>
-        <v>0.0076492684186669</v>
+        <v>0.00748555459586127</v>
       </c>
       <c r="S27" s="1" t="n">
         <f aca="false">G27 / $E27</f>
-        <v>0.0133150228083469</v>
+        <v>0.0133728528376294</v>
       </c>
       <c r="T27" s="2" t="n">
         <f aca="false">H27 / $E27</f>
-        <v>0.666296677832424</v>
-      </c>
-      <c r="U27" s="3" t="n">
+        <v>0.667497524786058</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <f aca="false">I27 / $E27</f>
-        <v>0.0286569487894216</v>
+        <v>0.0291638381952498</v>
       </c>
       <c r="V27" s="4" t="n">
         <f aca="false">J27 / $E27</f>
-        <v>0.238732288687731</v>
+        <v>0.237308345734861</v>
       </c>
       <c r="W27" s="1" t="n">
         <f aca="false">K27 / $E27</f>
-        <v>0.0119959258841219</v>
+        <v>0.0116518209213734</v>
       </c>
       <c r="X27" s="1" t="n">
         <f aca="false">L27 / $E27</f>
-        <v>0.0297261111173653</v>
+        <v>0.029936480049738</v>
       </c>
       <c r="Y27" s="1" t="n">
         <f aca="false">M27 / $E27</f>
-        <v>1.45724506966239E-007</v>
+        <v>1.49979176434685E-007</v>
       </c>
       <c r="Z27" s="1" t="n">
         <f aca="false">N27 / $E27</f>
-        <v>0.000203100577709054</v>
+        <v>0.000203340463243395</v>
       </c>
       <c r="AB27" s="1" t="n">
         <f aca="false">E$32 / E27</f>
-        <v>3.71752848216668</v>
+        <v>3.71585248190621</v>
       </c>
       <c r="AC27" s="1" t="n">
         <f aca="false">H$32/H27</f>
-        <v>3.9639082783616</v>
+        <v>3.96130483041417</v>
       </c>
       <c r="AD27" s="1" t="n">
         <f aca="false">J$32/J27</f>
-        <v>3.45476782115343</v>
+        <v>3.44690694428105</v>
       </c>
       <c r="AF27" s="1" t="n">
         <f aca="false">D27 / P27</f>
@@ -2908,34 +2908,34 @@
         <v>30000000</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>785.623292</v>
+        <v>789.335478</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>7.296666</v>
+        <v>5.91734</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>3.503815</v>
+        <v>3.251267</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>531.267207</v>
+        <v>533.529213</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>27.374833</v>
+        <v>31.532676</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>170.00529</v>
+        <v>170.072291</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>4.872858</v>
+        <v>4.800549</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>27.586093</v>
+        <v>26.743011</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>10.47054</v>
+        <v>10.420289</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0.182535</v>
+        <v>0.165664</v>
       </c>
       <c r="P28" s="1" t="n">
         <f aca="false">A28 * B28 * C28</f>
@@ -2943,67 +2943,67 @@
       </c>
       <c r="R28" s="1" t="n">
         <f aca="false">F28 / $E28</f>
-        <v>0.00928774143320588</v>
+        <v>0.00749660969882314</v>
       </c>
       <c r="S28" s="1" t="n">
         <f aca="false">G28 / $E28</f>
-        <v>0.0044599174129374</v>
+        <v>0.00411899260912228</v>
       </c>
       <c r="T28" s="2" t="n">
         <f aca="false">H28 / $E28</f>
-        <v>0.676236578535658</v>
-      </c>
-      <c r="U28" s="3" t="n">
+        <v>0.675921997515992</v>
+      </c>
+      <c r="U28" s="1" t="n">
         <f aca="false">I28 / $E28</f>
-        <v>0.0348447319201936</v>
+        <v>0.0399483830118681</v>
       </c>
       <c r="V28" s="4" t="n">
         <f aca="false">J28 / $E28</f>
-        <v>0.216395429884989</v>
+        <v>0.215462621078334</v>
       </c>
       <c r="W28" s="1" t="n">
         <f aca="false">K28 / $E28</f>
-        <v>0.00620253758973327</v>
+        <v>0.00608176008021776</v>
       </c>
       <c r="X28" s="1" t="n">
         <f aca="false">L28 / $E28</f>
-        <v>0.0351136394260571</v>
+        <v>0.0338804117455367</v>
       </c>
       <c r="Y28" s="1" t="n">
         <f aca="false">M28 / $E28</f>
-        <v>0.0133276852998396</v>
+        <v>0.0132013437764164</v>
       </c>
       <c r="Z28" s="1" t="n">
         <f aca="false">N28 / $E28</f>
-        <v>0.000232344180549067</v>
+        <v>0.000209877808127611</v>
       </c>
       <c r="AB28" s="1" t="n">
         <f aca="false">E$32 / E28</f>
-        <v>3.6043780636789</v>
+        <v>3.60963855599051</v>
       </c>
       <c r="AC28" s="1" t="n">
         <f aca="false">H$32/H28</f>
-        <v>3.78676730935512</v>
+        <v>3.8001137362276</v>
       </c>
       <c r="AD28" s="1" t="n">
         <f aca="false">J$32/J28</f>
-        <v>3.6953704028857</v>
+        <v>3.68787238833632</v>
       </c>
       <c r="AF28" s="1" t="n">
         <f aca="false">D28 / P28</f>
         <v>7500000</v>
       </c>
-      <c r="AH28" s="0" t="n">
-        <f aca="false"> E$31 / E28</f>
-        <v>1.95124524897615</v>
-      </c>
-      <c r="AI28" s="0" t="n">
-        <f aca="false"> H$31 / H28</f>
-        <v>1.98982907107986</v>
-      </c>
-      <c r="AJ28" s="0" t="n">
-        <f aca="false"> J$31 / J28</f>
-        <v>1.93862485690886</v>
+      <c r="AH28" s="1" t="n">
+        <f aca="false">E$31 / E28</f>
+        <v>1.9511793919391</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <f aca="false">H$31 / H28</f>
+        <v>1.99133802819528</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <f aca="false">J$31 / J28</f>
+        <v>1.93229599053264</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,34 +3020,34 @@
         <v>30000000</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>797.129416</v>
+        <v>803.54944</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>6.088908</v>
+        <v>5.990057</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>2.995246</v>
+        <v>3.081347</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>526.728087</v>
+        <v>530.479025</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>47.130492</v>
+        <v>49.267992</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>168.262726</v>
+        <v>168.48703</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>4.258433</v>
+        <v>4.328703</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>25.117978</v>
+        <v>25.032519</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>13.534767</v>
+        <v>13.914346</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>0.16017</v>
+        <v>0.163156</v>
       </c>
       <c r="P29" s="1" t="n">
         <f aca="false">A29 * B29 * C29</f>
@@ -3055,67 +3055,67 @@
       </c>
       <c r="R29" s="1" t="n">
         <f aca="false">F29 / $E29</f>
-        <v>0.0076385438522068</v>
+        <v>0.00745449713710211</v>
       </c>
       <c r="S29" s="1" t="n">
         <f aca="false">G29 / $E29</f>
-        <v>0.0037575404192586</v>
+        <v>0.00383467008576348</v>
       </c>
       <c r="T29" s="2" t="n">
         <f aca="false">H29 / $E29</f>
-        <v>0.660781143472442</v>
-      </c>
-      <c r="U29" s="3" t="n">
+        <v>0.660169740146916</v>
+      </c>
+      <c r="U29" s="1" t="n">
         <f aca="false">I29 / $E29</f>
-        <v>0.0591252700678154</v>
+        <v>0.0613129566738296</v>
       </c>
       <c r="V29" s="4" t="n">
         <f aca="false">J29 / $E29</f>
-        <v>0.211085832015011</v>
+        <v>0.209678485993345</v>
       </c>
       <c r="W29" s="1" t="n">
         <f aca="false">K29 / $E29</f>
-        <v>0.00534221032937016</v>
+        <v>0.00538697780686649</v>
       </c>
       <c r="X29" s="1" t="n">
         <f aca="false">L29 / $E29</f>
-        <v>0.0315105395633775</v>
+        <v>0.0311524316412939</v>
       </c>
       <c r="Y29" s="1" t="n">
         <f aca="false">M29 / $E29</f>
-        <v>0.0169793846875173</v>
+        <v>0.0173161044079628</v>
       </c>
       <c r="Z29" s="1" t="n">
         <f aca="false">N29 / $E29</f>
-        <v>0.000200933495596906</v>
+        <v>0.000203044133787213</v>
       </c>
       <c r="AB29" s="1" t="n">
         <f aca="false">E$32 / E29</f>
-        <v>3.5523508518973</v>
+        <v>3.54578776758279</v>
       </c>
       <c r="AC29" s="1" t="n">
         <f aca="false">H$32/H29</f>
-        <v>3.81940006931888</v>
+        <v>3.82196391459587</v>
       </c>
       <c r="AD29" s="1" t="n">
         <f aca="false">J$32/J29</f>
-        <v>3.73364043204673</v>
+        <v>3.72257084714473</v>
       </c>
       <c r="AF29" s="1" t="n">
         <f aca="false">D29 / P29</f>
         <v>7500000</v>
       </c>
-      <c r="AH29" s="0" t="n">
-        <f aca="false"> E$31 / E29</f>
-        <v>1.92308009870257</v>
-      </c>
-      <c r="AI29" s="0" t="n">
-        <f aca="false"> H$31 / H29</f>
-        <v>2.00697657689175</v>
-      </c>
-      <c r="AJ29" s="0" t="n">
-        <f aca="false"> J$31 / J29</f>
-        <v>1.95870166159082</v>
+      <c r="AH29" s="1" t="n">
+        <f aca="false">E$31 / E29</f>
+        <v>1.91666503805914</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <f aca="false">H$31 / H29</f>
+        <v>2.00278797262531</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <f aca="false">J$31 / J29</f>
+        <v>1.95047657971062</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,34 +3132,34 @@
         <v>30000000</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>1451.501872</v>
+        <v>1456.349154</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>10.789414</v>
+        <v>11.341281</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>12.138651</v>
+        <v>12.295859</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>1013.477915</v>
+        <v>1020.572796</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>30.675665</v>
+        <v>29.448222</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>322.446419</v>
+        <v>320.498501</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>14.843301</v>
+        <v>14.475719</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>42.196068</v>
+        <v>42.693804</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.000164</v>
+        <v>0.000109</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0.234507</v>
+        <v>0.232728</v>
       </c>
       <c r="P30" s="1" t="n">
         <f aca="false">A30 * B30 * C30</f>
@@ -3167,51 +3167,51 @@
       </c>
       <c r="R30" s="1" t="n">
         <f aca="false">F30 / $E30</f>
-        <v>0.00743327597995685</v>
+        <v>0.00778747388210451</v>
       </c>
       <c r="S30" s="1" t="n">
         <f aca="false">G30 / $E30</f>
-        <v>0.00836282145697432</v>
+        <v>0.00844293345879885</v>
       </c>
       <c r="T30" s="2" t="n">
         <f aca="false">H30 / $E30</f>
-        <v>0.698227080894871</v>
-      </c>
-      <c r="U30" s="3" t="n">
+        <v>0.700774806094336</v>
+      </c>
+      <c r="U30" s="1" t="n">
         <f aca="false">I30 / $E30</f>
-        <v>0.0211337412591363</v>
+        <v>0.0202205782309261</v>
       </c>
       <c r="V30" s="4" t="n">
         <f aca="false">J30 / $E30</f>
-        <v>0.222146746910982</v>
+        <v>0.220069823311066</v>
       </c>
       <c r="W30" s="1" t="n">
         <f aca="false">K30 / $E30</f>
-        <v>0.0102261673142369</v>
+        <v>0.00993973111478183</v>
       </c>
       <c r="X30" s="1" t="n">
         <f aca="false">L30 / $E30</f>
-        <v>0.0290706259592065</v>
+        <v>0.0293156375878253</v>
       </c>
       <c r="Y30" s="1" t="n">
         <f aca="false">M30 / $E30</f>
-        <v>1.1298641990315E-007</v>
+        <v>7.48446893388315E-008</v>
       </c>
       <c r="Z30" s="1" t="n">
         <f aca="false">N30 / $E30</f>
-        <v>0.000161561624220902</v>
+        <v>0.000159802338169244</v>
       </c>
       <c r="AB30" s="1" t="n">
         <f aca="false">E$32 / E30</f>
-        <v>1.95086442162026</v>
+        <v>1.95640981228599</v>
       </c>
       <c r="AC30" s="1" t="n">
         <f aca="false">H$32/H30</f>
-        <v>1.98503121007822</v>
+        <v>1.98660173869655</v>
       </c>
       <c r="AD30" s="1" t="n">
         <f aca="false">J$32/J30</f>
-        <v>1.94833150558264</v>
+        <v>1.95696673788811</v>
       </c>
       <c r="AF30" s="1" t="n">
         <f aca="false">D30 / P30</f>
@@ -3232,34 +3232,34 @@
         <v>30000000</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>1532.943716</v>
+        <v>1540.135118</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>13.582287</v>
+        <v>13.315466</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>4.087373</v>
+        <v>4.087954</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>1057.130933</v>
+        <v>1062.437011</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>49.043518</v>
+        <v>50.962464</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>329.576481</v>
+        <v>328.630006</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>8.257091</v>
+        <v>8.259409</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>48.303493</v>
+        <v>48.042984</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>16.309424</v>
+        <v>17.511101</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0.309248</v>
+        <v>0.31043</v>
       </c>
       <c r="P31" s="1" t="n">
         <f aca="false">A31 * B31 * C31</f>
@@ -3267,66 +3267,66 @@
       </c>
       <c r="R31" s="1" t="n">
         <f aca="false">F31 / $E31</f>
-        <v>0.0088602646387051</v>
+        <v>0.00864564793333932</v>
       </c>
       <c r="S31" s="1" t="n">
         <f aca="false">G31 / $E31</f>
-        <v>0.00266635555978886</v>
+        <v>0.00265428270040915</v>
       </c>
       <c r="T31" s="2" t="n">
         <f aca="false">H31 / $E31</f>
-        <v>0.689608445480591</v>
-      </c>
-      <c r="U31" s="3" t="n">
+        <v>0.689833637700351</v>
+      </c>
+      <c r="U31" s="1" t="n">
         <f aca="false">I31 / $E31</f>
-        <v>0.0319930324173755</v>
+        <v>0.0330896058432712</v>
       </c>
       <c r="V31" s="4" t="n">
         <f aca="false">J31 / $E31</f>
-        <v>0.214995813323129</v>
+        <v>0.213377386282026</v>
       </c>
       <c r="W31" s="1" t="n">
         <f aca="false">K31 / $E31</f>
-        <v>0.00538642802982076</v>
+        <v>0.00536278207247528</v>
       </c>
       <c r="X31" s="1" t="n">
         <f aca="false">L31 / $E31</f>
-        <v>0.0315102847520333</v>
+        <v>0.0311940059274721</v>
       </c>
       <c r="Y31" s="1" t="n">
         <f aca="false">M31 / $E31</f>
-        <v>0.010639284293201</v>
+        <v>0.011369847226612</v>
       </c>
       <c r="Z31" s="1" t="n">
         <f aca="false">N31 / $E31</f>
-        <v>0.000201734738707132</v>
+        <v>0.000201560237392107</v>
       </c>
       <c r="AB31" s="1" t="n">
         <f aca="false">E$32 / E31</f>
-        <v>1.84721939262642</v>
+        <v>1.84997779850638</v>
       </c>
       <c r="AC31" s="1" t="n">
         <f aca="false">H$32/H31</f>
-        <v>1.9030616068445</v>
+        <v>1.9083217828525</v>
       </c>
       <c r="AD31" s="1" t="n">
         <f aca="false">J$32/J31</f>
-        <v>1.90618127572034</v>
+        <v>1.90854424291372</v>
       </c>
       <c r="AF31" s="1" t="n">
         <f aca="false">D31 / P31</f>
         <v>15000000</v>
       </c>
-      <c r="AH31" s="0" t="n">
-        <f aca="false"> E$31 / E31</f>
-        <v>1</v>
-      </c>
-      <c r="AI31" s="0" t="n">
-        <f aca="false"> H$31 / H31</f>
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="0" t="n">
-        <f aca="false"> J$31 / J31</f>
+      <c r="AH31" s="1" t="n">
+        <f aca="false">E$31 / E31</f>
+        <v>1</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <f aca="false">H$31 / H31</f>
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <f aca="false">J$31 / J31</f>
         <v>1</v>
       </c>
     </row>
@@ -3344,34 +3344,34 @@
         <v>30000000</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>2831.68336</v>
+        <v>2849.215775</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>21.920394</v>
+        <v>22.181261</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>15.916563</v>
+        <v>15.604537</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>2011.785292</v>
+        <v>2027.471691</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>38.142421</v>
+        <v>37.634568</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>628.232517</v>
+        <v>627.204906</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>25.572233</v>
+        <v>25.703885</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>80.623796</v>
+        <v>81.398832</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.00012</v>
+        <v>0.000118</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0.452424</v>
+        <v>0.456556</v>
       </c>
       <c r="P32" s="1" t="n">
         <f aca="false">A32 * B32 * C32</f>
@@ -3379,39 +3379,39 @@
       </c>
       <c r="R32" s="1" t="n">
         <f aca="false">F32 / $E32</f>
-        <v>0.00774111763682504</v>
+        <v>0.00778504078021258</v>
       </c>
       <c r="S32" s="1" t="n">
         <f aca="false">G32 / $E32</f>
-        <v>0.00562088375587304</v>
+        <v>0.00547678316851941</v>
       </c>
       <c r="T32" s="2" t="n">
         <f aca="false">H32 / $E32</f>
-        <v>0.710455596984544</v>
-      </c>
-      <c r="U32" s="3" t="n">
+        <v>0.711589381467608</v>
+      </c>
+      <c r="U32" s="1" t="n">
         <f aca="false">I32 / $E32</f>
-        <v>0.0134698750357455</v>
+        <v>0.0132087461856061</v>
       </c>
       <c r="V32" s="4" t="n">
         <f aca="false">J32 / $E32</f>
-        <v>0.221858321404975</v>
+        <v>0.220132469960089</v>
       </c>
       <c r="W32" s="1" t="n">
         <f aca="false">K32 / $E32</f>
-        <v>0.0090307530005756</v>
+        <v>0.00902138940319464</v>
       </c>
       <c r="X32" s="1" t="n">
         <f aca="false">L32 / $E32</f>
-        <v>0.0284720379188159</v>
+        <v>0.0285688548807786</v>
       </c>
       <c r="Y32" s="1" t="n">
         <f aca="false">M32 / $E32</f>
-        <v>4.23776195089835E-008</v>
+        <v>4.14149047732266E-008</v>
       </c>
       <c r="Z32" s="1" t="n">
         <f aca="false">N32 / $E32</f>
-        <v>0.00015977210107277</v>
+        <v>0.000160239180200383</v>
       </c>
       <c r="AB32" s="1" t="n">
         <f aca="false">E$32 / E32</f>

--- a/scaling-plots/excel-processed/split_merge_local.xlsx
+++ b/scaling-plots/excel-processed/split_merge_local.xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,6 +190,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -274,7 +289,1248 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup and execution time
+split merge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$35:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50.50199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.557558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.966464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361.121776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710.769378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1404.429898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2756.416235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="49258026"/>
+        <c:axId val="23213869"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$35:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>54.5803489129834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.1506706951971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.065144588464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6329272234195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.87807398618684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.96265847012038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="39775159"/>
+        <c:axId val="29620128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49258026"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23213869"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23213869"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="49258026"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39775159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29620128"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="29620128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39775159"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Speedup and number of object per thread
+split merge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$35:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50.50199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.557558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.966464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361.121776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710.769378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1404.429898</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2756.416235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="25001434"/>
+        <c:axId val="12486377"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N object per thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$35:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$35:$W$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>468750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>937500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1875000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3750000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="45583517"/>
+        <c:axId val="71455584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="25001434"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12486377"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="12486377"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25001434"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45583517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71455584"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71455584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>#N object per thread</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45583517"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>679680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>110160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20062440" y="5231160"/>
+        <a:ext cx="8425080" cy="4307400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>384840</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>154080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>631080</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>72360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20013840" y="9744840"/>
+        <a:ext cx="8425080" cy="4307400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -284,11 +1540,11 @@
   </sheetPr>
   <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S30" activeCellId="0" sqref="S30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X58" activeCellId="0" sqref="X58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -358,31 +1614,31 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -429,31 +1685,31 @@
       <c r="N5" s="1" t="n">
         <v>0.125491</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>0.505548</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <v>7.506923</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>34.092678</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>7.528159</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>20.737476</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="1" t="n">
         <v>3.65249</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>2.712344</v>
       </c>
       <c r="W5" s="3" t="n">
         <v>6.4E-005</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>0.125491</v>
       </c>
     </row>
@@ -500,31 +1756,31 @@
       <c r="N6" s="1" t="n">
         <v>0.025751</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>1.622208</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="1" t="n">
         <v>2.73016</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>30.586379</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="1" t="n">
         <v>5.663299</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>16.718553</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="1" t="n">
         <v>1.207437</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>1.780956</v>
       </c>
       <c r="W6" s="3" t="n">
         <v>5.4E-005</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="1" t="n">
         <v>0.025097</v>
       </c>
     </row>
@@ -571,31 +1827,31 @@
       <c r="N7" s="1" t="n">
         <v>0.025475</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>1.068295</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="1" t="n">
         <v>2.30837</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>30.326136</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="1" t="n">
         <v>4.712749</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>15.3395</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="1" t="n">
         <v>0.799194</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>1.552151</v>
       </c>
       <c r="W7" s="3" t="n">
         <v>6E-005</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="1" t="n">
         <v>0.024977</v>
       </c>
     </row>
@@ -642,31 +1898,31 @@
       <c r="N8" s="1" t="n">
         <v>0.025407</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>0.910162</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <v>2.365073</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <v>30.14734</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="1" t="n">
         <v>3.630753</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>14.048579</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="1" t="n">
         <v>0.769808</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>1.414421</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="1" t="n">
         <v>0.000111</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="1" t="n">
         <v>0.024708</v>
       </c>
     </row>
@@ -713,31 +1969,31 @@
       <c r="N9" s="1" t="n">
         <v>0.024144</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>0.889904</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <v>0.542763</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>29.528259</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="1" t="n">
         <v>2.431994</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="1" t="n">
         <v>11.310181</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="1" t="n">
         <v>0.244005</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>1.295399</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="1" t="n">
         <v>0.00016</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="1" t="n">
         <v>0.023695</v>
       </c>
     </row>
@@ -784,31 +2040,31 @@
       <c r="N10" s="1" t="n">
         <v>0.023591</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>0.765946</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="1" t="n">
         <v>0.496692</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>29.547821</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>2.185077</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>10.314815</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="1" t="n">
         <v>0.259607</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>1.209692</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>0.000352</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="1" t="n">
         <v>0.022977</v>
       </c>
     </row>
@@ -855,31 +2111,31 @@
       <c r="N11" s="1" t="n">
         <v>0.026133</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>0.703323</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
         <v>0.47219</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>29.45858</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="1" t="n">
         <v>2.004572</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="1" t="n">
         <v>9.765211</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="1" t="n">
         <v>0.205911</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>1.169268</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="1" t="n">
         <v>0.000248</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="1" t="n">
         <v>0.024847</v>
       </c>
     </row>
@@ -926,31 +2182,31 @@
       <c r="N12" s="1" t="n">
         <v>0.075271</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>0.808908</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="1" t="n">
         <v>6.862719</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>62.823816</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="1" t="n">
         <v>6.523721</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="1" t="n">
         <v>34.608055</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="1" t="n">
         <v>3.655816</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>5.042003</v>
       </c>
       <c r="W12" s="3" t="n">
         <v>1.6E-005</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="1" t="n">
         <v>0.075271</v>
       </c>
     </row>
@@ -997,31 +2253,31 @@
       <c r="N13" s="1" t="n">
         <v>0.040708</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="1" t="n">
         <v>1.946364</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="1" t="n">
         <v>3.113276</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="1" t="n">
         <v>60.838402</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="1" t="n">
         <v>8.007113</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13" s="1" t="n">
         <v>30.936883</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13" s="1" t="n">
         <v>1.466746</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="1" t="n">
         <v>3.002103</v>
       </c>
       <c r="W13" s="3" t="n">
         <v>3E-005</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13" s="1" t="n">
         <v>0.040294</v>
       </c>
     </row>
@@ -1068,31 +2324,31 @@
       <c r="N14" s="1" t="n">
         <v>0.05793</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="1" t="n">
         <v>1.370704</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="1" t="n">
         <v>2.646799</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="1" t="n">
         <v>60.125037</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="1" t="n">
         <v>6.34068</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14" s="1" t="n">
         <v>27.654731</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14" s="1" t="n">
         <v>1.125607</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14" s="1" t="n">
         <v>2.525983</v>
       </c>
       <c r="W14" s="3" t="n">
         <v>5.5E-005</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14" s="1" t="n">
         <v>0.056915</v>
       </c>
     </row>
@@ -1139,31 +2395,31 @@
       <c r="N15" s="1" t="n">
         <v>0.042354</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="1" t="n">
         <v>1.206471</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15" s="1" t="n">
         <v>2.722091</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="1" t="n">
         <v>59.631268</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="S15" s="1" t="n">
         <v>4.663506</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15" s="1" t="n">
         <v>22.875342</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15" s="1" t="n">
         <v>0.853808</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15" s="1" t="n">
         <v>2.365933</v>
       </c>
       <c r="W15" s="3" t="n">
         <v>9E-005</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15" s="1" t="n">
         <v>0.040932</v>
       </c>
     </row>
@@ -1210,31 +2466,31 @@
       <c r="N16" s="1" t="n">
         <v>0.040717</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="1" t="n">
         <v>1.210442</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16" s="1" t="n">
         <v>0.67748</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="R16" s="1" t="n">
         <v>58.577152</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="S16" s="1" t="n">
         <v>3.85454</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16" s="1" t="n">
         <v>20.246313</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16" s="1" t="n">
         <v>0.407221</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16" s="1" t="n">
         <v>2.185732</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="W16" s="1" t="n">
         <v>0.000144</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16" s="1" t="n">
         <v>0.039942</v>
       </c>
     </row>
@@ -1281,31 +2537,31 @@
       <c r="N17" s="1" t="n">
         <v>0.040425</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="1" t="n">
         <v>1.113494</v>
       </c>
-      <c r="Q17" s="0" t="n">
+      <c r="Q17" s="1" t="n">
         <v>0.685369</v>
       </c>
-      <c r="R17" s="0" t="n">
+      <c r="R17" s="1" t="n">
         <v>58.392308</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="S17" s="1" t="n">
         <v>3.457868</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="1" t="n">
         <v>19.146624</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17" s="1" t="n">
         <v>0.420086</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="1" t="n">
         <v>2.139494</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="1" t="n">
         <v>0.0002</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17" s="1" t="n">
         <v>0.039487</v>
       </c>
     </row>
@@ -1352,31 +2608,31 @@
       <c r="N18" s="1" t="n">
         <v>0.079791</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="1" t="n">
         <v>1.557763</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="Q18" s="1" t="n">
         <v>7.763776</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="R18" s="1" t="n">
         <v>125.526249</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="S18" s="1" t="n">
         <v>12.930528</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18" s="1" t="n">
         <v>64.98337</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18" s="1" t="n">
         <v>4.516494</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18" s="1" t="n">
         <v>8.986411</v>
       </c>
       <c r="W18" s="3" t="n">
         <v>2.2E-005</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18" s="1" t="n">
         <v>0.079791</v>
       </c>
     </row>
@@ -1423,31 +2679,31 @@
       <c r="N19" s="1" t="n">
         <v>0.12365</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="1" t="n">
         <v>2.716132</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="Q19" s="1" t="n">
         <v>4.115593</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="R19" s="1" t="n">
         <v>120.754851</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="S19" s="1" t="n">
         <v>12.562339</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19" s="1" t="n">
         <v>57.292911</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19" s="1" t="n">
         <v>1.87842</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="1" t="n">
         <v>6.25793</v>
       </c>
       <c r="W19" s="3" t="n">
         <v>5.7E-005</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19" s="1" t="n">
         <v>0.111002</v>
       </c>
     </row>
@@ -1494,31 +2750,31 @@
       <c r="N20" s="1" t="n">
         <v>0.077076</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="1" t="n">
         <v>1.977549</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="Q20" s="1" t="n">
         <v>3.66137</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="R20" s="1" t="n">
         <v>119.239961</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="S20" s="1" t="n">
         <v>8.599926</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20" s="1" t="n">
         <v>47.208942</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20" s="1" t="n">
         <v>1.670734</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20" s="1" t="n">
         <v>5.002373</v>
       </c>
       <c r="W20" s="3" t="n">
         <v>5.1E-005</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20" s="1" t="n">
         <v>0.076888</v>
       </c>
     </row>
@@ -1565,31 +2821,31 @@
       <c r="N21" s="1" t="n">
         <v>0.077154</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="1" t="n">
         <v>1.858748</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="Q21" s="1" t="n">
         <v>3.525596</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="R21" s="1" t="n">
         <v>118.616782</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="S21" s="1" t="n">
         <v>7.929625</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="1" t="n">
         <v>41.984881</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21" s="1" t="n">
         <v>1.241379</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21" s="1" t="n">
         <v>4.376896</v>
       </c>
       <c r="W21" s="3" t="n">
         <v>8.1E-005</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21" s="1" t="n">
         <v>0.076734</v>
       </c>
     </row>
@@ -1636,31 +2892,31 @@
       <c r="N22" s="1" t="n">
         <v>0.076461</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="1" t="n">
         <v>1.900038</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="Q22" s="1" t="n">
         <v>1.420005</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="R22" s="1" t="n">
         <v>116.851924</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="S22" s="1" t="n">
         <v>6.933006</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="1" t="n">
         <v>37.93843</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22" s="1" t="n">
         <v>0.801231</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22" s="1" t="n">
         <v>4.122872</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="W22" s="1" t="n">
         <v>0.000114</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22" s="1" t="n">
         <v>0.075998</v>
       </c>
     </row>
@@ -1707,31 +2963,31 @@
       <c r="N23" s="1" t="n">
         <v>0.169688</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="1" t="n">
         <v>3.041036</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="Q23" s="1" t="n">
         <v>9.806816</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="R23" s="1" t="n">
         <v>247.915754</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="S23" s="1" t="n">
         <v>20.296317</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23" s="1" t="n">
         <v>114.945957</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23" s="1" t="n">
         <v>6.860032</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23" s="1" t="n">
         <v>14.393791</v>
       </c>
       <c r="W23" s="3" t="n">
         <v>3.1E-005</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="X23" s="1" t="n">
         <v>0.169688</v>
       </c>
     </row>
@@ -1778,31 +3034,31 @@
       <c r="N24" s="1" t="n">
         <v>0.081207</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="1" t="n">
         <v>3.725496</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="1" t="n">
         <v>4.298255</v>
       </c>
-      <c r="R24" s="0" t="n">
+      <c r="R24" s="1" t="n">
         <v>240.002868</v>
       </c>
-      <c r="S24" s="0" t="n">
+      <c r="S24" s="1" t="n">
         <v>15.460341</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24" s="1" t="n">
         <v>91.88953</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24" s="1" t="n">
         <v>3.574921</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24" s="1" t="n">
         <v>10.91823</v>
       </c>
       <c r="W24" s="3" t="n">
         <v>4.4E-005</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24" s="1" t="n">
         <v>0.081064</v>
       </c>
     </row>
@@ -1849,31 +3105,31 @@
       <c r="N25" s="1" t="n">
         <v>0.079197</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="1" t="n">
         <v>3.239393</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="1" t="n">
         <v>3.643568</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="1" t="n">
         <v>237.482154</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="S25" s="1" t="n">
         <v>12.981279</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="1" t="n">
         <v>82.6931</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25" s="1" t="n">
         <v>2.657108</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25" s="1" t="n">
         <v>9.745934</v>
       </c>
       <c r="W25" s="3" t="n">
         <v>5.7E-005</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="1" t="n">
         <v>0.078374</v>
       </c>
     </row>
@@ -1920,31 +3176,31 @@
       <c r="N26" s="1" t="n">
         <v>0.07956</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="1" t="n">
         <v>3.128307</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="1" t="n">
         <v>3.662186</v>
       </c>
-      <c r="R26" s="0" t="n">
+      <c r="R26" s="1" t="n">
         <v>237.101166</v>
       </c>
-      <c r="S26" s="0" t="n">
+      <c r="S26" s="1" t="n">
         <v>10.693765</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26" s="1" t="n">
         <v>78.656118</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26" s="1" t="n">
         <v>2.216311</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26" s="1" t="n">
         <v>9.298974</v>
       </c>
       <c r="W26" s="3" t="n">
         <v>8.1E-005</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26" s="1" t="n">
         <v>0.078106</v>
       </c>
     </row>
@@ -1991,31 +3247,31 @@
       <c r="N27" s="1" t="n">
         <v>0.158485</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="1" t="n">
         <v>5.777404</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="1" t="n">
         <v>10.003649</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="R27" s="1" t="n">
         <v>492.282854</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="S27" s="1" t="n">
         <v>22.431094</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27" s="1" t="n">
         <v>181.474286</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27" s="1" t="n">
         <v>9.039778</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27" s="1" t="n">
         <v>22.33772</v>
       </c>
       <c r="W27" s="3" t="n">
         <v>2.4E-005</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27" s="1" t="n">
         <v>0.158485</v>
       </c>
     </row>
@@ -2062,31 +3318,31 @@
       <c r="N28" s="1" t="n">
         <v>0.120942</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="1" t="n">
         <v>6.219209</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="Q28" s="1" t="n">
         <v>4.305329</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="R28" s="1" t="n">
         <v>479.142032</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="S28" s="1" t="n">
         <v>22.59202</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28" s="1" t="n">
         <v>164.063124</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28" s="1" t="n">
         <v>6.347106</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28" s="1" t="n">
         <v>19.873545</v>
       </c>
       <c r="W28" s="3" t="n">
         <v>7.6E-005</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28" s="1" t="n">
         <v>0.120694</v>
       </c>
     </row>
@@ -2133,31 +3389,31 @@
       <c r="N29" s="1" t="n">
         <v>0.118158</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="1" t="n">
         <v>5.748181</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="Q29" s="1" t="n">
         <v>3.521882</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="1" t="n">
         <v>475.952738</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="S29" s="1" t="n">
         <v>18.634547</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="T29" s="1" t="n">
         <v>157.490194</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29" s="1" t="n">
         <v>5.765711</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29" s="1" t="n">
         <v>18.265968</v>
       </c>
       <c r="W29" s="3" t="n">
         <v>4.9E-005</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29" s="1" t="n">
         <v>0.117969</v>
       </c>
     </row>
@@ -2204,31 +3460,31 @@
       <c r="N30" s="1" t="n">
         <v>0.229771</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="1" t="n">
         <v>10.671342</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30" s="1" t="n">
         <v>11.108656</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="R30" s="1" t="n">
         <v>981.04633</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="S30" s="1" t="n">
         <v>29.82889</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="T30" s="1" t="n">
         <v>324.547186</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="U30" s="1" t="n">
         <v>14.5862</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30" s="1" t="n">
         <v>41.323944</v>
       </c>
       <c r="W30" s="3" t="n">
         <v>3E-005</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30" s="1" t="n">
         <v>0.229771</v>
       </c>
     </row>
@@ -2275,31 +3531,31 @@
       <c r="N31" s="1" t="n">
         <v>0.235632</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="1" t="n">
         <v>11.541396</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31" s="1" t="n">
         <v>6.038422</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="1" t="n">
         <v>959.027624</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31" s="1" t="n">
         <v>34.10082</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31" s="1" t="n">
         <v>319.251866</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="U31" s="1" t="n">
         <v>11.511642</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31" s="1" t="n">
         <v>35.648189</v>
       </c>
       <c r="W31" s="3" t="n">
         <v>5.3E-005</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="X31" s="1" t="n">
         <v>0.234668</v>
       </c>
     </row>
@@ -2346,31 +3602,31 @@
       <c r="N32" s="1" t="n">
         <v>0.453304</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="1" t="n">
         <v>21.147745</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="Q32" s="1" t="n">
         <v>15.913615</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="R32" s="1" t="n">
         <v>1952.002751</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="S32" s="1" t="n">
         <v>37.93619</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32" s="1" t="n">
         <v>616.193132</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="U32" s="1" t="n">
         <v>24.893524</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32" s="1" t="n">
         <v>79.118754</v>
       </c>
       <c r="W32" s="3" t="n">
         <v>2.2E-005</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32" s="1" t="n">
         <v>0.453304</v>
       </c>
     </row>
@@ -2419,19 +3675,19 @@
         <v>40</v>
       </c>
       <c r="R34" s="1"/>
-      <c r="S34" s="0" t="s">
+      <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U34" s="0" t="s">
+      <c r="U34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="V34" s="0" t="s">
+      <c r="V34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W34" s="0" t="s">
+      <c r="W34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X34" s="0" t="s">
+      <c r="X34" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2492,23 +3748,23 @@
         <f aca="false">D5 / A35</f>
         <v>468750</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35" s="1" t="n">
         <f aca="false">MATCH(V35, M$35:M$62, 0)</f>
         <v>7</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="U35" s="1" t="n">
         <f aca="false">A35</f>
         <v>64</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="V35" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U35)</f>
         <v>54.5803489129834</v>
       </c>
-      <c r="W35" s="0" t="n">
+      <c r="W35" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S35)</f>
         <v>468750</v>
       </c>
-      <c r="X35" s="0" t="n">
+      <c r="X35" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S35)</f>
         <v>50.50199</v>
       </c>
@@ -2570,23 +3826,23 @@
         <f aca="false">D6 / A36</f>
         <v>468750</v>
       </c>
-      <c r="S36" s="0" t="n">
+      <c r="S36" s="1" t="n">
         <f aca="false">MATCH(V36, M$35:M$62, 0)</f>
         <v>13</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="U36" s="1" t="n">
         <f aca="false">A42</f>
         <v>32</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="V36" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U36)</f>
         <v>29.1506706951971</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="W36" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S36)</f>
         <v>937500</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="X36" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S36)</f>
         <v>94.557558</v>
       </c>
@@ -2648,23 +3904,23 @@
         <f aca="false">D7 / A37</f>
         <v>468750</v>
       </c>
-      <c r="S37" s="0" t="n">
+      <c r="S37" s="1" t="n">
         <f aca="false">MATCH(V37, M$35:M$62, 0)</f>
         <v>18</v>
       </c>
-      <c r="U37" s="0" t="n">
+      <c r="U37" s="1" t="n">
         <f aca="false">A48</f>
         <v>16</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="V37" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U37)</f>
         <v>15.065144588464</v>
       </c>
-      <c r="W37" s="0" t="n">
+      <c r="W37" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S37)</f>
         <v>1875000</v>
       </c>
-      <c r="X37" s="0" t="n">
+      <c r="X37" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S37)</f>
         <v>182.966464</v>
       </c>
@@ -2726,23 +3982,23 @@
         <f aca="false">D8 / A38</f>
         <v>468750</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38" s="1" t="n">
         <f aca="false">MATCH(V38, M$35:M$62, 0)</f>
         <v>22</v>
       </c>
-      <c r="U38" s="0" t="n">
+      <c r="U38" s="1" t="n">
         <f aca="false">A53</f>
         <v>8</v>
       </c>
-      <c r="V38" s="0" t="n">
+      <c r="V38" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U38)</f>
         <v>7.6329272234195</v>
       </c>
-      <c r="W38" s="0" t="n">
+      <c r="W38" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S38)</f>
         <v>3750000</v>
       </c>
-      <c r="X38" s="0" t="n">
+      <c r="X38" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S38)</f>
         <v>361.121776</v>
       </c>
@@ -2804,23 +4060,23 @@
         <f aca="false">D9 / A39</f>
         <v>468750</v>
       </c>
-      <c r="S39" s="0" t="n">
+      <c r="S39" s="1" t="n">
         <f aca="false">MATCH(V39, M$35:M$62, 0)</f>
         <v>25</v>
       </c>
-      <c r="U39" s="0" t="n">
+      <c r="U39" s="1" t="n">
         <f aca="false">A57</f>
         <v>4</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U39)</f>
         <v>3.87807398618684</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="W39" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S39)</f>
         <v>7500000</v>
       </c>
-      <c r="X39" s="0" t="n">
+      <c r="X39" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S39)</f>
         <v>710.769378</v>
       </c>
@@ -2882,23 +4138,23 @@
         <f aca="false">D10 / A40</f>
         <v>468750</v>
       </c>
-      <c r="S40" s="0" t="n">
+      <c r="S40" s="1" t="n">
         <f aca="false">MATCH(V40, M$35:M$62, 0)</f>
         <v>27</v>
       </c>
-      <c r="U40" s="0" t="n">
+      <c r="U40" s="1" t="n">
         <f aca="false">A60</f>
         <v>2</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="V40" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U40)</f>
         <v>1.96265847012038</v>
       </c>
-      <c r="W40" s="0" t="n">
+      <c r="W40" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S40)</f>
         <v>15000000</v>
       </c>
-      <c r="X40" s="0" t="n">
+      <c r="X40" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S40)</f>
         <v>1404.429898</v>
       </c>
@@ -2960,23 +4216,23 @@
         <f aca="false">D11 / A41</f>
         <v>468750</v>
       </c>
-      <c r="S41" s="0" t="n">
+      <c r="S41" s="1" t="n">
         <f aca="false">MATCH(V41, M$35:M$62, 0)</f>
         <v>28</v>
       </c>
-      <c r="U41" s="0" t="n">
+      <c r="U41" s="1" t="n">
         <f aca="false">A62</f>
         <v>1</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="V41" s="1" t="n">
         <f aca="false">_xlfn.MAXIFS(M$35:M$62,A$35:A$62,U41)</f>
         <v>1</v>
       </c>
-      <c r="W41" s="0" t="n">
+      <c r="W41" s="1" t="n">
         <f aca="false">INDEX(Q$35:Q$62,S41)</f>
         <v>30000000</v>
       </c>
-      <c r="X41" s="0" t="n">
+      <c r="X41" s="1" t="n">
         <f aca="false">INDEX(E$5:E$32,S41)</f>
         <v>2756.416235</v>
       </c>
@@ -4252,5 +5508,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>